--- a/Data/Non-linear charging.xlsx
+++ b/Data/Non-linear charging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52D5024-BB97-4AAE-85DD-9491938485DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
   </bookViews>
   <sheets>
     <sheet name="fleet (2)" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +113,18 @@
   <si>
     <t>15200</t>
   </si>
+  <si>
+    <t>theta1</t>
+  </si>
+  <si>
+    <t>theta2</t>
+  </si>
+  <si>
+    <t>theta3</t>
+  </si>
+  <si>
+    <t>f^-1</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +161,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +183,2359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'fleet (2)'!$F$13:$F$262</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="250"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fleet (2)'!$G$13:$G$262</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="250"/>
+                <c:pt idx="0">
+                  <c:v>2.4606831119544594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4536242884250474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4465654648956359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4395066413662239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4324478178368123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4253889943074003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4183301707779887</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4112713472485767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4042125237191652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3971537001897532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3900948766603416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3830360531309296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.375977229601518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3689184060721065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3618595825426945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3548007590132829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3477419354838709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3406831119544593</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3336242884250473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3265654648956358</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3195066413662238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3124478178368122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3053889943074006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2983301707779886</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2912713472485771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2842125237191651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2771537001897535</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2700948766603415</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2630360531309299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2559772296015179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2489184060721064</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2418595825426944</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2348007590132828</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2277419354838708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2206831119544592</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2136242884250477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2065654648956357</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1995066413662241</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1924478178368121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1853889943074005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1783301707779885</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.171271347248577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1642125237191649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1571537001897534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1500948766603414</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1430360531309298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1359772296015178</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1289184060721063</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1218595825426947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1148007590132827</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1077419354838711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1006831119544591</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0936242884250476</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0865654648956355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.079506641366224</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.072447817836812</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0653889943074004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0583301707779889</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0512713472485768</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0442125237191648</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0371537001897533</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0300948766603417</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0230360531309297</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0159772296015182</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0089184060721061</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0018595825426946</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9948007590132828</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.987741935483871</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9806831119544592</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9736242884250474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9665654648956357</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9595066413662239</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9524478178368121</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9453889943074003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9383301707779887</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9312713472485767</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9242125237191652</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9171537001897532</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9100948766603416</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9030360531309298</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.895977229601518</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8889184060721063</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8818595825426945</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8748007590132827</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8677419354838709</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8606831119544593</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8536242884250473</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8465654648956358</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8395066413662238</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8324478178368122</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8253889943074002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8183301707779886</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8112713472485769</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8042125237191651</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7971537001897533</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7900948766603415</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7830360531309297</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7759772296015179</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7689184060721064</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7618595825426944</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7548007590132828</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7477419354838708</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7406831119544592</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.7336242884250475</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.7265654648956357</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7195066413662239</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.7124478178368121</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7053889943074003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6983301707779885</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.691271347248577</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.684212523719165</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6771537001897534</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6700948766603414</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6630360531309298</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.6559772296015181</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6489184060721063</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6418595825426945</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.6348007590132827</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6277419354838709</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.6206831119544591</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6136242884250476</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6065654648956356</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.599506641366224</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.592447817836812</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.5853889943074004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.5783301707779884</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5712713472485769</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5642125237191651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.5571537001897533</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.5500948766603415</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.5430360531309297</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5359772296015179</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.5289184060721062</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5218595825426946</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5148007590132826</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.507741935483871</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.500683111954459</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4936242884250475</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4865654648956357</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.4795066413662239</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4724478178368121</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4653889943074003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.4583301707779885</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.4512713472485768</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.444212523719165</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.4371537001897532</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4300948766603414</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4230360531309298</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4159772296015181</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4089184060721063</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.4018595825426945</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3948007590132827</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.3877419354838709</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.3806831119544591</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.3736242884250474</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.3665654648956356</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.3595066413662238</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.352447817836812</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.3453889943074004</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.3383301707779887</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.3312713472485769</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.3242125237191651</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.3171537001897533</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.3100948766603415</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.3030360531309297</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.295977229601518</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.2889184060721062</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.2818595825426944</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.2748007590132826</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2677419354838708</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.2606831119544593</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.2536242884250475</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.2465654648956357</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.2395066413662239</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.2324478178368121</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.2253889943074003</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.2183301707779886</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.2112713472485768</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.204212523719165</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.1971537001897532</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1900948766603414</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1830360531309296</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1759772296015181</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1689184060721063</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1618595825426945</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1548007590132827</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1477419354838709</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1406831119544592</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.1336242884250474</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1265654648956356</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.1195066413662238</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.112447817836812</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1053889943074002</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.0983301707779884</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.0912713472485769</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.0842125237191651</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.0771537001897533</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.0700948766603415</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.0630360531309297</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.055977229601518</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.0489184060721062</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.0418595825426944</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.0348007590132826</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.0277419354838708</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.020683111954459</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.0136242884250473</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.0065654648956357</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99950664136622391</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.99244781783681213</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.98538899430740035</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.97833017077798856</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.97127134724857678</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.94451612903225812</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.92903225806451628</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.91354838709677422</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.89806451612903238</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.88258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.86709677419354847</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.85161290322580641</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.83612903225806456</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.82064516129032272</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.80516129032258066</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.78967741935483882</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.77419354838709697</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.75870967741935491</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.74322580645161307</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.72774193548387101</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.71225806451612916</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.6967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.68129032258064526</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.66580645161290342</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.65032258064516135</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.63483870967741951</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.61935483870967767</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.6038709677419356</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.58838709677419376</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.55741935483870986</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.51096774193548411</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.46451612903225836</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.41806451612903217</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.37161290322580642</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.32516129032258068</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.27870967741935493</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.23225806451612918</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.18580645161290343</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.13935483870967769</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9.2903225806451495E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.6451612903225747E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F06A-43F8-B3FA-8D50AE723D55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2021736495"/>
+        <c:axId val="1781665695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2021736495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781665695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1781665695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021736495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CD5EEE-BC3C-4222-8684-566A2C57E3AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,28 +2875,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAD5C0-1AED-4C35-8640-9E4C67D3B1FC}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +2931,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -599,8 +2966,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -634,8 +3001,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -669,8 +3036,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -704,40 +3071,2333 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>$G$10*H8</f>
+        <v>212.5</v>
+      </c>
+      <c r="H8">
         <f>H3/$H$5</f>
         <v>0.85</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <f>1.5</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="0">H4/$H$5</f>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>$G$10*H9</f>
+        <v>237.5</v>
+      </c>
+      <c r="H9">
+        <f>H4/$H$5</f>
         <v>0.95</v>
       </c>
-      <c r="I8">
-        <f>I7*I4/I3</f>
+      <c r="I9">
+        <f>I8*I4/I3</f>
         <v>1.8870967741935483</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H9">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>250</v>
+      </c>
+      <c r="H10">
+        <f>H5/$H$5</f>
         <v>1</v>
       </c>
-      <c r="I9">
-        <f>I7*I5/I3</f>
+      <c r="I10">
+        <f>I8*I5/I3</f>
         <v>2.467741935483871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>$I$10-((MIN(F13,$G$8)-$G$7)/$I$15+IF(F13&gt;=$G$8,1,0)*(MIN(F13,$G$9)-$G$8)/$I$14+IF(F13&gt;=$G$9,1,0)*(MIN(F13,$G$10)-$G$9)/$I$13)</f>
+        <v>2.4606831119544594</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <f>(G10-G9)/(I10-I9)</f>
+        <v>21.527777777777771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G77" si="0">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
+        <v>2.4536242884250474</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <f>(G9-G8)/(I9-I8)</f>
+        <v>64.583333333333357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.4465654648956359</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <f>(G8-G7)/(I8-I7)</f>
+        <v>141.66666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2.4395066413662239</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2.4324478178368123</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2.4253889943074003</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>2.4183301707779887</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.4112713472485767</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2.4042125237191652</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2.3971537001897532</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2.3900948766603416</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>2.3830360531309296</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>2.375977229601518</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>2.3689184060721065</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2.3618595825426945</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2.3548007590132829</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2.3477419354838709</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2.3406831119544593</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>2.3336242884250473</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>2.3265654648956358</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>2.3195066413662238</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>22</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>2.3124478178368122</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2.3053889943074006</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>2.2983301707779886</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>2.2912713472485771</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>26</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2.2842125237191651</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>27</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>2.2771537001897535</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>2.2700948766603415</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>29</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>2.2630360531309299</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>2.2559772296015179</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>31</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2.2489184060721064</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>2.2418595825426944</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>2.2348007590132828</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>2.2277419354838708</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>2.2206831119544592</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>2.2136242884250477</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>37</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>2.2065654648956357</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>38</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>2.1995066413662241</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>39</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>2.1924478178368121</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>2.1853889943074005</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>41</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>2.1783301707779885</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>2.171271347248577</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>43</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>2.1642125237191649</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>44</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>2.1571537001897534</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>45</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2.1500948766603414</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>2.1430360531309298</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>47</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2.1359772296015178</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2.1289184060721063</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>49</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2.1218595825426947</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>2.1148007590132827</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>51</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>2.1077419354838711</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>52</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>2.1006831119544591</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>53</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>2.0936242884250476</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>54</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>2.0865654648956355</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>55</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>2.079506641366224</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>56</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>2.072447817836812</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>57</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>2.0653889943074004</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>58</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>2.0583301707779889</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>59</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>2.0512713472485768</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>2.0442125237191648</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>61</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>2.0371537001897533</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>62</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>2.0300948766603417</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>63</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>2.0230360531309297</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>64</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>2.0159772296015182</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>65</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>2.0089184060721061</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>66</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:G141" si="1">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
+        <v>2.0018595825426946</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>67</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>1.9948007590132828</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>68</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>1.987741935483871</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>69</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1.9806831119544592</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>70</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>1.9736242884250474</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>71</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>1.9665654648956357</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>72</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>1.9595066413662239</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>73</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>1.9524478178368121</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>74</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>1.9453889943074003</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>75</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>1.9383301707779887</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>76</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>1.9312713472485767</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>77</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>1.9242125237191652</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>78</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>1.9171537001897532</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>79</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>1.9100948766603416</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>80</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>1.9030360531309298</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>81</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>1.895977229601518</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>82</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>1.8889184060721063</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>83</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>1.8818595825426945</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>84</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>1.8748007590132827</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>85</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>1.8677419354838709</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>86</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>1.8606831119544593</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>87</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>1.8536242884250473</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>88</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>1.8465654648956358</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>89</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>1.8395066413662238</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>90</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>1.8324478178368122</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>91</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>1.8253889943074002</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>92</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>1.8183301707779886</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>93</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>1.8112713472485769</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>94</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>1.8042125237191651</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>95</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>1.7971537001897533</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>96</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>1.7900948766603415</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>97</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>1.7830360531309297</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>98</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>1.7759772296015179</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>99</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>1.7689184060721064</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1.7618595825426944</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>101</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>1.7548007590132828</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>102</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>1.7477419354838708</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>103</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>1.7406831119544592</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>104</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>1.7336242884250475</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>105</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>1.7265654648956357</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>106</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>1.7195066413662239</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>107</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>1.7124478178368121</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>108</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>1.7053889943074003</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>109</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>1.6983301707779885</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>110</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>1.691271347248577</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>111</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>1.684212523719165</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>112</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>1.6771537001897534</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>113</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>1.6700948766603414</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>114</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>1.6630360531309298</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>115</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>1.6559772296015181</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>116</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>1.6489184060721063</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>117</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>1.6418595825426945</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>118</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>1.6348007590132827</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>119</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="1"/>
+        <v>1.6277419354838709</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>120</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="1"/>
+        <v>1.6206831119544591</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>121</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="1"/>
+        <v>1.6136242884250476</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>122</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="1"/>
+        <v>1.6065654648956356</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>123</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="1"/>
+        <v>1.599506641366224</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>124</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="1"/>
+        <v>1.592447817836812</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>125</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="1"/>
+        <v>1.5853889943074004</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>126</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="1"/>
+        <v>1.5783301707779884</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>127</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="1"/>
+        <v>1.5712713472485769</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>128</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="1"/>
+        <v>1.5642125237191651</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>129</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="1"/>
+        <v>1.5571537001897533</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>130</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ref="G142:G205" si="2">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
+        <v>1.5500948766603415</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>131</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>1.5430360531309297</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>132</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>1.5359772296015179</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>133</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>1.5289184060721062</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>134</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>1.5218595825426946</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>135</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>1.5148007590132826</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>136</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>1.507741935483871</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>137</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>1.500683111954459</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>138</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>1.4936242884250475</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>139</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>1.4865654648956357</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>140</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>1.4795066413662239</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>141</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>1.4724478178368121</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>142</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>1.4653889943074003</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>143</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>1.4583301707779885</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>144</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>1.4512713472485768</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>145</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>1.444212523719165</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>146</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>1.4371537001897532</v>
+      </c>
+    </row>
+    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>147</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>1.4300948766603414</v>
+      </c>
+    </row>
+    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>148</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>1.4230360531309298</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>149</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>1.4159772296015181</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>150</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>1.4089184060721063</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>151</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>1.4018595825426945</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>152</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>1.3948007590132827</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>153</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>1.3877419354838709</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>154</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>1.3806831119544591</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>155</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>1.3736242884250474</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>156</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>1.3665654648956356</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>157</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>1.3595066413662238</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>158</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>1.352447817836812</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>159</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>1.3453889943074004</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>160</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>1.3383301707779887</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>161</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>1.3312713472485769</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>162</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>1.3242125237191651</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>163</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>1.3171537001897533</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>164</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>1.3100948766603415</v>
+      </c>
+    </row>
+    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>165</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>1.3030360531309297</v>
+      </c>
+    </row>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>166</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>1.295977229601518</v>
+      </c>
+    </row>
+    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>167</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>1.2889184060721062</v>
+      </c>
+    </row>
+    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>168</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="2"/>
+        <v>1.2818595825426944</v>
+      </c>
+    </row>
+    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>169</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="2"/>
+        <v>1.2748007590132826</v>
+      </c>
+    </row>
+    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>170</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="2"/>
+        <v>1.2677419354838708</v>
+      </c>
+    </row>
+    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>171</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="2"/>
+        <v>1.2606831119544593</v>
+      </c>
+    </row>
+    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>172</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="2"/>
+        <v>1.2536242884250475</v>
+      </c>
+    </row>
+    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>173</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="2"/>
+        <v>1.2465654648956357</v>
+      </c>
+    </row>
+    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>174</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="2"/>
+        <v>1.2395066413662239</v>
+      </c>
+    </row>
+    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>175</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="2"/>
+        <v>1.2324478178368121</v>
+      </c>
+    </row>
+    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>176</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="2"/>
+        <v>1.2253889943074003</v>
+      </c>
+    </row>
+    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>177</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>1.2183301707779886</v>
+      </c>
+    </row>
+    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>178</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>1.2112713472485768</v>
+      </c>
+    </row>
+    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>179</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>1.204212523719165</v>
+      </c>
+    </row>
+    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>180</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>1.1971537001897532</v>
+      </c>
+    </row>
+    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>181</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>1.1900948766603414</v>
+      </c>
+    </row>
+    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>182</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>1.1830360531309296</v>
+      </c>
+    </row>
+    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>183</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="2"/>
+        <v>1.1759772296015181</v>
+      </c>
+    </row>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>184</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="2"/>
+        <v>1.1689184060721063</v>
+      </c>
+    </row>
+    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>185</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="2"/>
+        <v>1.1618595825426945</v>
+      </c>
+    </row>
+    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>186</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="2"/>
+        <v>1.1548007590132827</v>
+      </c>
+    </row>
+    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>187</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="2"/>
+        <v>1.1477419354838709</v>
+      </c>
+    </row>
+    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>188</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="2"/>
+        <v>1.1406831119544592</v>
+      </c>
+    </row>
+    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>189</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="2"/>
+        <v>1.1336242884250474</v>
+      </c>
+    </row>
+    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>190</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="2"/>
+        <v>1.1265654648956356</v>
+      </c>
+    </row>
+    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>191</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="2"/>
+        <v>1.1195066413662238</v>
+      </c>
+    </row>
+    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>192</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="2"/>
+        <v>1.112447817836812</v>
+      </c>
+    </row>
+    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>193</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="2"/>
+        <v>1.1053889943074002</v>
+      </c>
+    </row>
+    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>194</v>
+      </c>
+      <c r="G206">
+        <f t="shared" ref="G206:G262" si="3">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
+        <v>1.0983301707779884</v>
+      </c>
+    </row>
+    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>195</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>1.0912713472485769</v>
+      </c>
+    </row>
+    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>196</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>1.0842125237191651</v>
+      </c>
+    </row>
+    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>197</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>1.0771537001897533</v>
+      </c>
+    </row>
+    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>198</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>1.0700948766603415</v>
+      </c>
+    </row>
+    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>199</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>1.0630360531309297</v>
+      </c>
+    </row>
+    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>200</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>1.055977229601518</v>
+      </c>
+    </row>
+    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>201</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>1.0489184060721062</v>
+      </c>
+    </row>
+    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>202</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>1.0418595825426944</v>
+      </c>
+    </row>
+    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>203</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>1.0348007590132826</v>
+      </c>
+    </row>
+    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>204</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>1.0277419354838708</v>
+      </c>
+    </row>
+    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>205</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>1.020683111954459</v>
+      </c>
+    </row>
+    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>206</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>1.0136242884250473</v>
+      </c>
+    </row>
+    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>207</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="3"/>
+        <v>1.0065654648956357</v>
+      </c>
+    </row>
+    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>208</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>0.99950664136622391</v>
+      </c>
+    </row>
+    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>209</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>0.99244781783681213</v>
+      </c>
+    </row>
+    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>210</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>0.98538899430740035</v>
+      </c>
+    </row>
+    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>211</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>0.97833017077798856</v>
+      </c>
+    </row>
+    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>212</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>0.97127134724857678</v>
+      </c>
+    </row>
+    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>213</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>214</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="3"/>
+        <v>0.94451612903225812</v>
+      </c>
+    </row>
+    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>215</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="3"/>
+        <v>0.92903225806451628</v>
+      </c>
+    </row>
+    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>216</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="3"/>
+        <v>0.91354838709677422</v>
+      </c>
+    </row>
+    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>217</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="3"/>
+        <v>0.89806451612903238</v>
+      </c>
+    </row>
+    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>218</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="3"/>
+        <v>0.88258064516129031</v>
+      </c>
+    </row>
+    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>219</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>0.86709677419354847</v>
+      </c>
+    </row>
+    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>220</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="3"/>
+        <v>0.85161290322580641</v>
+      </c>
+    </row>
+    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>221</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>0.83612903225806456</v>
+      </c>
+    </row>
+    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>222</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="3"/>
+        <v>0.82064516129032272</v>
+      </c>
+    </row>
+    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>223</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="3"/>
+        <v>0.80516129032258066</v>
+      </c>
+    </row>
+    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>224</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="3"/>
+        <v>0.78967741935483882</v>
+      </c>
+    </row>
+    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>225</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="3"/>
+        <v>0.77419354838709697</v>
+      </c>
+    </row>
+    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>226</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="3"/>
+        <v>0.75870967741935491</v>
+      </c>
+    </row>
+    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>227</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="3"/>
+        <v>0.74322580645161307</v>
+      </c>
+    </row>
+    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>228</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="3"/>
+        <v>0.72774193548387101</v>
+      </c>
+    </row>
+    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>229</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="3"/>
+        <v>0.71225806451612916</v>
+      </c>
+    </row>
+    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>230</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="3"/>
+        <v>0.6967741935483871</v>
+      </c>
+    </row>
+    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>231</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="3"/>
+        <v>0.68129032258064526</v>
+      </c>
+    </row>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>232</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="3"/>
+        <v>0.66580645161290342</v>
+      </c>
+    </row>
+    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>233</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="3"/>
+        <v>0.65032258064516135</v>
+      </c>
+    </row>
+    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>234</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="3"/>
+        <v>0.63483870967741951</v>
+      </c>
+    </row>
+    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>235</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="3"/>
+        <v>0.61935483870967767</v>
+      </c>
+    </row>
+    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>236</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="3"/>
+        <v>0.6038709677419356</v>
+      </c>
+    </row>
+    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>237</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="3"/>
+        <v>0.58838709677419376</v>
+      </c>
+    </row>
+    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>238</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="3"/>
+        <v>0.55741935483870986</v>
+      </c>
+    </row>
+    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>239</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="3"/>
+        <v>0.51096774193548411</v>
+      </c>
+    </row>
+    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>240</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="3"/>
+        <v>0.46451612903225836</v>
+      </c>
+    </row>
+    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>241</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="3"/>
+        <v>0.41806451612903217</v>
+      </c>
+    </row>
+    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>242</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="3"/>
+        <v>0.37161290322580642</v>
+      </c>
+    </row>
+    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>243</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="3"/>
+        <v>0.32516129032258068</v>
+      </c>
+    </row>
+    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>244</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="3"/>
+        <v>0.27870967741935493</v>
+      </c>
+    </row>
+    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>245</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="3"/>
+        <v>0.23225806451612918</v>
+      </c>
+    </row>
+    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>246</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="3"/>
+        <v>0.18580645161290343</v>
+      </c>
+    </row>
+    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>247</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="3"/>
+        <v>0.13935483870967769</v>
+      </c>
+    </row>
+    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>248</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="3"/>
+        <v>9.2903225806451495E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>249</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="3"/>
+        <v>4.6451612903225747E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>250</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -750,7 +5410,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -762,7 +5422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Non-linear charging.xlsx
+++ b/Data/Non-linear charging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A52D5024-BB97-4AAE-85DD-9491938485DE}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34B470D-463E-469B-AE69-59E71DCBD588}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
   </bookViews>
   <sheets>
     <sheet name="fleet (2)" sheetId="3" r:id="rId1"/>
@@ -225,7 +225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1828,7 +1828,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1781665695"/>
@@ -1887,7 +1887,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2021736495"/>
@@ -1928,7 +1928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2877,26 +2877,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAD5C0-1AED-4C35-8640-9E4C67D3B1FC}">
   <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3071,12 +3071,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>INTERCEPT(D8:D9,E8:E9)</f>
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="D8">
+        <f>G10</f>
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <f>H10</f>
+        <v>1</v>
+      </c>
       <c r="G8">
         <f>$G$10*H8</f>
         <v>212.5</v>
@@ -3090,7 +3102,19 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f t="shared" ref="C9:C11" si="0">INTERCEPT(D9:D10,E9:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>G9</f>
+        <v>237.5</v>
+      </c>
+      <c r="E9">
+        <f>H9</f>
+        <v>0.95</v>
+      </c>
       <c r="G9">
         <f>$G$10*H9</f>
         <v>237.5</v>
@@ -3104,7 +3128,19 @@
         <v>1.8870967741935483</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.4210854715202004E-14</v>
+      </c>
+      <c r="D10">
+        <f>G8</f>
+        <v>212.5</v>
+      </c>
+      <c r="E10">
+        <f>H8</f>
+        <v>0.85</v>
+      </c>
       <c r="G10">
         <v>250</v>
       </c>
@@ -3117,12 +3153,20 @@
         <v>2.467741935483871</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>1</v>
       </c>
@@ -3138,12 +3182,12 @@
         <v>21.527777777777771</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G77" si="0">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
+        <f t="shared" ref="G14:G77" si="1">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
         <v>2.4536242884250474</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3154,12 +3198,12 @@
         <v>64.583333333333357</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4465654648956359</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3170,2226 +3214,2226 @@
         <v>141.66666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4395066413662239</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4324478178368123</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4253889943074003</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>7</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4183301707779887</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4112713472485767</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4042125237191652</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3971537001897532</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>11</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3900948766603416</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>12</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3830360531309296</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>13</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.375977229601518</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>14</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3689184060721065</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>15</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3618595825426945</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>16</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3548007590132829</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>17</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3477419354838709</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>18</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3406831119544593</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>19</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3336242884250473</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3265654648956358</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>21</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3195066413662238</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>22</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3124478178368122</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3053889943074006</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>24</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2983301707779886</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>25</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2912713472485771</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>26</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2842125237191651</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>27</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2771537001897535</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>28</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2700948766603415</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>29</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2630360531309299</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2559772296015179</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>31</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2489184060721064</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>32</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2418595825426944</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>33</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2348007590132828</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>34</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2277419354838708</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>35</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2206831119544592</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>36</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2136242884250477</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49">
         <v>37</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2065654648956357</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50">
         <v>38</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1995066413662241</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51">
         <v>39</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1924478178368121</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>40</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1853889943074005</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53">
         <v>41</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1783301707779885</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>42</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.171271347248577</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55">
         <v>43</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1642125237191649</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>44</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1571537001897534</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>45</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1500948766603414</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>46</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1430360531309298</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>47</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1359772296015178</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>48</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1289184060721063</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>49</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1218595825426947</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>50</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1148007590132827</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>51</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1077419354838711</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>52</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1006831119544591</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65">
         <v>53</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0936242884250476</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66">
         <v>54</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0865654648956355</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67">
         <v>55</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.079506641366224</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68">
         <v>56</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.072447817836812</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69">
         <v>57</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0653889943074004</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70">
         <v>58</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0583301707779889</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71">
         <v>59</v>
       </c>
       <c r="G71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0512713472485768</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72">
         <v>60</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0442125237191648</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73">
         <v>61</v>
       </c>
       <c r="G73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0371537001897533</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74">
         <v>62</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0300948766603417</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75">
         <v>63</v>
       </c>
       <c r="G75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0230360531309297</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76">
         <v>64</v>
       </c>
       <c r="G76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0159772296015182</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77">
         <v>65</v>
       </c>
       <c r="G77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0089184060721061</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78">
         <v>66</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G141" si="1">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
+        <f t="shared" ref="G78:G141" si="2">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
         <v>2.0018595825426946</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79">
         <v>67</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9948007590132828</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80">
         <v>68</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.987741935483871</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81">
         <v>69</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9806831119544592</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82">
         <v>70</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9736242884250474</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83">
         <v>71</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9665654648956357</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84">
         <v>72</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9595066413662239</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85">
         <v>73</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9524478178368121</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86">
         <v>74</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9453889943074003</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87">
         <v>75</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9383301707779887</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88">
         <v>76</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9312713472485767</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89">
         <v>77</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9242125237191652</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90">
         <v>78</v>
       </c>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9171537001897532</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91">
         <v>79</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9100948766603416</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92">
         <v>80</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9030360531309298</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93">
         <v>81</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.895977229601518</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94">
         <v>82</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8889184060721063</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95">
         <v>83</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8818595825426945</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96">
         <v>84</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8748007590132827</v>
       </c>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97">
         <v>85</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8677419354838709</v>
       </c>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98">
         <v>86</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8606831119544593</v>
       </c>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99">
         <v>87</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8536242884250473</v>
       </c>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100">
         <v>88</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8465654648956358</v>
       </c>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101">
         <v>89</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8395066413662238</v>
       </c>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102">
         <v>90</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8324478178368122</v>
       </c>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103">
         <v>91</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8253889943074002</v>
       </c>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104">
         <v>92</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8183301707779886</v>
       </c>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105">
         <v>93</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8112713472485769</v>
       </c>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106">
         <v>94</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8042125237191651</v>
       </c>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107">
         <v>95</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7971537001897533</v>
       </c>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108">
         <v>96</v>
       </c>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7900948766603415</v>
       </c>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109">
         <v>97</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7830360531309297</v>
       </c>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110">
         <v>98</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7759772296015179</v>
       </c>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111">
         <v>99</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7689184060721064</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F112">
         <v>100</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7618595825426944</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113">
         <v>101</v>
       </c>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7548007590132828</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114">
         <v>102</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7477419354838708</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115">
         <v>103</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7406831119544592</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116">
         <v>104</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7336242884250475</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117">
         <v>105</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7265654648956357</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118">
         <v>106</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7195066413662239</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119">
         <v>107</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7124478178368121</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120">
         <v>108</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7053889943074003</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F121">
         <v>109</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6983301707779885</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F122">
         <v>110</v>
       </c>
       <c r="G122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.691271347248577</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F123">
         <v>111</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.684212523719165</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F124">
         <v>112</v>
       </c>
       <c r="G124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6771537001897534</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F125">
         <v>113</v>
       </c>
       <c r="G125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6700948766603414</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F126">
         <v>114</v>
       </c>
       <c r="G126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6630360531309298</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F127">
         <v>115</v>
       </c>
       <c r="G127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6559772296015181</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F128">
         <v>116</v>
       </c>
       <c r="G128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6489184060721063</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F129">
         <v>117</v>
       </c>
       <c r="G129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6418595825426945</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F130">
         <v>118</v>
       </c>
       <c r="G130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6348007590132827</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F131">
         <v>119</v>
       </c>
       <c r="G131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6277419354838709</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F132">
         <v>120</v>
       </c>
       <c r="G132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6206831119544591</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133">
         <v>121</v>
       </c>
       <c r="G133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6136242884250476</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F134">
         <v>122</v>
       </c>
       <c r="G134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6065654648956356</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135">
         <v>123</v>
       </c>
       <c r="G135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.599506641366224</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F136">
         <v>124</v>
       </c>
       <c r="G136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.592447817836812</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F137">
         <v>125</v>
       </c>
       <c r="G137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5853889943074004</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F138">
         <v>126</v>
       </c>
       <c r="G138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5783301707779884</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F139">
         <v>127</v>
       </c>
       <c r="G139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5712713472485769</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F140">
         <v>128</v>
       </c>
       <c r="G140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5642125237191651</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F141">
         <v>129</v>
       </c>
       <c r="G141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5571537001897533</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F142">
         <v>130</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G205" si="2">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
+        <f t="shared" ref="G142:G205" si="3">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
         <v>1.5500948766603415</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F143">
         <v>131</v>
       </c>
       <c r="G143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5430360531309297</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F144">
         <v>132</v>
       </c>
       <c r="G144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5359772296015179</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F145">
         <v>133</v>
       </c>
       <c r="G145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5289184060721062</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F146">
         <v>134</v>
       </c>
       <c r="G146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5218595825426946</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F147">
         <v>135</v>
       </c>
       <c r="G147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5148007590132826</v>
       </c>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F148">
         <v>136</v>
       </c>
       <c r="G148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.507741935483871</v>
       </c>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F149">
         <v>137</v>
       </c>
       <c r="G149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.500683111954459</v>
       </c>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F150">
         <v>138</v>
       </c>
       <c r="G150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4936242884250475</v>
       </c>
     </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F151">
         <v>139</v>
       </c>
       <c r="G151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4865654648956357</v>
       </c>
     </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F152">
         <v>140</v>
       </c>
       <c r="G152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4795066413662239</v>
       </c>
     </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F153">
         <v>141</v>
       </c>
       <c r="G153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4724478178368121</v>
       </c>
     </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F154">
         <v>142</v>
       </c>
       <c r="G154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4653889943074003</v>
       </c>
     </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F155">
         <v>143</v>
       </c>
       <c r="G155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4583301707779885</v>
       </c>
     </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F156">
         <v>144</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4512713472485768</v>
       </c>
     </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F157">
         <v>145</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.444212523719165</v>
       </c>
     </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F158">
         <v>146</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4371537001897532</v>
       </c>
     </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F159">
         <v>147</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4300948766603414</v>
       </c>
     </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F160">
         <v>148</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4230360531309298</v>
       </c>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F161">
         <v>149</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4159772296015181</v>
       </c>
     </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F162">
         <v>150</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4089184060721063</v>
       </c>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F163">
         <v>151</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4018595825426945</v>
       </c>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F164">
         <v>152</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3948007590132827</v>
       </c>
     </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F165">
         <v>153</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3877419354838709</v>
       </c>
     </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F166">
         <v>154</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3806831119544591</v>
       </c>
     </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F167">
         <v>155</v>
       </c>
       <c r="G167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3736242884250474</v>
       </c>
     </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F168">
         <v>156</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3665654648956356</v>
       </c>
     </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F169">
         <v>157</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3595066413662238</v>
       </c>
     </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F170">
         <v>158</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.352447817836812</v>
       </c>
     </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F171">
         <v>159</v>
       </c>
       <c r="G171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3453889943074004</v>
       </c>
     </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F172">
         <v>160</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3383301707779887</v>
       </c>
     </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F173">
         <v>161</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3312713472485769</v>
       </c>
     </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F174">
         <v>162</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3242125237191651</v>
       </c>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F175">
         <v>163</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3171537001897533</v>
       </c>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F176">
         <v>164</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3100948766603415</v>
       </c>
     </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F177">
         <v>165</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3030360531309297</v>
       </c>
     </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F178">
         <v>166</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.295977229601518</v>
       </c>
     </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F179">
         <v>167</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2889184060721062</v>
       </c>
     </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F180">
         <v>168</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2818595825426944</v>
       </c>
     </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F181">
         <v>169</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2748007590132826</v>
       </c>
     </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F182">
         <v>170</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2677419354838708</v>
       </c>
     </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F183">
         <v>171</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2606831119544593</v>
       </c>
     </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F184">
         <v>172</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2536242884250475</v>
       </c>
     </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F185">
         <v>173</v>
       </c>
       <c r="G185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2465654648956357</v>
       </c>
     </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F186">
         <v>174</v>
       </c>
       <c r="G186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2395066413662239</v>
       </c>
     </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F187">
         <v>175</v>
       </c>
       <c r="G187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2324478178368121</v>
       </c>
     </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F188">
         <v>176</v>
       </c>
       <c r="G188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2253889943074003</v>
       </c>
     </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F189">
         <v>177</v>
       </c>
       <c r="G189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2183301707779886</v>
       </c>
     </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F190">
         <v>178</v>
       </c>
       <c r="G190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2112713472485768</v>
       </c>
     </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F191">
         <v>179</v>
       </c>
       <c r="G191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.204212523719165</v>
       </c>
     </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F192">
         <v>180</v>
       </c>
       <c r="G192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1971537001897532</v>
       </c>
     </row>
-    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F193">
         <v>181</v>
       </c>
       <c r="G193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1900948766603414</v>
       </c>
     </row>
-    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F194">
         <v>182</v>
       </c>
       <c r="G194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1830360531309296</v>
       </c>
     </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F195">
         <v>183</v>
       </c>
       <c r="G195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1759772296015181</v>
       </c>
     </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F196">
         <v>184</v>
       </c>
       <c r="G196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1689184060721063</v>
       </c>
     </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F197">
         <v>185</v>
       </c>
       <c r="G197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1618595825426945</v>
       </c>
     </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F198">
         <v>186</v>
       </c>
       <c r="G198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1548007590132827</v>
       </c>
     </row>
-    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F199">
         <v>187</v>
       </c>
       <c r="G199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1477419354838709</v>
       </c>
     </row>
-    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F200">
         <v>188</v>
       </c>
       <c r="G200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1406831119544592</v>
       </c>
     </row>
-    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F201">
         <v>189</v>
       </c>
       <c r="G201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1336242884250474</v>
       </c>
     </row>
-    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F202">
         <v>190</v>
       </c>
       <c r="G202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1265654648956356</v>
       </c>
     </row>
-    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F203">
         <v>191</v>
       </c>
       <c r="G203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1195066413662238</v>
       </c>
     </row>
-    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F204">
         <v>192</v>
       </c>
       <c r="G204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.112447817836812</v>
       </c>
     </row>
-    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F205">
         <v>193</v>
       </c>
       <c r="G205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1053889943074002</v>
       </c>
     </row>
-    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F206">
         <v>194</v>
       </c>
       <c r="G206">
-        <f t="shared" ref="G206:G262" si="3">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
+        <f t="shared" ref="G206:G262" si="4">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
         <v>1.0983301707779884</v>
       </c>
     </row>
-    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F207">
         <v>195</v>
       </c>
       <c r="G207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0912713472485769</v>
       </c>
     </row>
-    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F208">
         <v>196</v>
       </c>
       <c r="G208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0842125237191651</v>
       </c>
     </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F209">
         <v>197</v>
       </c>
       <c r="G209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0771537001897533</v>
       </c>
     </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F210">
         <v>198</v>
       </c>
       <c r="G210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0700948766603415</v>
       </c>
     </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F211">
         <v>199</v>
       </c>
       <c r="G211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0630360531309297</v>
       </c>
     </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F212">
         <v>200</v>
       </c>
       <c r="G212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.055977229601518</v>
       </c>
     </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F213">
         <v>201</v>
       </c>
       <c r="G213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0489184060721062</v>
       </c>
     </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F214">
         <v>202</v>
       </c>
       <c r="G214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0418595825426944</v>
       </c>
     </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F215">
         <v>203</v>
       </c>
       <c r="G215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0348007590132826</v>
       </c>
     </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F216">
         <v>204</v>
       </c>
       <c r="G216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0277419354838708</v>
       </c>
     </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F217">
         <v>205</v>
       </c>
       <c r="G217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.020683111954459</v>
       </c>
     </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F218">
         <v>206</v>
       </c>
       <c r="G218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0136242884250473</v>
       </c>
     </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F219">
         <v>207</v>
       </c>
       <c r="G219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0065654648956357</v>
       </c>
     </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F220">
         <v>208</v>
       </c>
       <c r="G220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99950664136622391</v>
       </c>
     </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F221">
         <v>209</v>
       </c>
       <c r="G221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99244781783681213</v>
       </c>
     </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F222">
         <v>210</v>
       </c>
       <c r="G222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98538899430740035</v>
       </c>
     </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F223">
         <v>211</v>
       </c>
       <c r="G223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97833017077798856</v>
       </c>
     </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F224">
         <v>212</v>
       </c>
       <c r="G224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97127134724857678</v>
       </c>
     </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F225">
         <v>213</v>
       </c>
       <c r="G225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F226">
         <v>214</v>
       </c>
       <c r="G226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94451612903225812</v>
       </c>
     </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F227">
         <v>215</v>
       </c>
       <c r="G227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92903225806451628</v>
       </c>
     </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F228">
         <v>216</v>
       </c>
       <c r="G228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91354838709677422</v>
       </c>
     </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F229">
         <v>217</v>
       </c>
       <c r="G229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89806451612903238</v>
       </c>
     </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F230">
         <v>218</v>
       </c>
       <c r="G230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88258064516129031</v>
       </c>
     </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F231">
         <v>219</v>
       </c>
       <c r="G231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86709677419354847</v>
       </c>
     </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F232">
         <v>220</v>
       </c>
       <c r="G232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85161290322580641</v>
       </c>
     </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F233">
         <v>221</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83612903225806456</v>
       </c>
     </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F234">
         <v>222</v>
       </c>
       <c r="G234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82064516129032272</v>
       </c>
     </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F235">
         <v>223</v>
       </c>
       <c r="G235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80516129032258066</v>
       </c>
     </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F236">
         <v>224</v>
       </c>
       <c r="G236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78967741935483882</v>
       </c>
     </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F237">
         <v>225</v>
       </c>
       <c r="G237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77419354838709697</v>
       </c>
     </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F238">
         <v>226</v>
       </c>
       <c r="G238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75870967741935491</v>
       </c>
     </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F239">
         <v>227</v>
       </c>
       <c r="G239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74322580645161307</v>
       </c>
     </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F240">
         <v>228</v>
       </c>
       <c r="G240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72774193548387101</v>
       </c>
     </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F241">
         <v>229</v>
       </c>
       <c r="G241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71225806451612916</v>
       </c>
     </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F242">
         <v>230</v>
       </c>
       <c r="G242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6967741935483871</v>
       </c>
     </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F243">
         <v>231</v>
       </c>
       <c r="G243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68129032258064526</v>
       </c>
     </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F244">
         <v>232</v>
       </c>
       <c r="G244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66580645161290342</v>
       </c>
     </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F245">
         <v>233</v>
       </c>
       <c r="G245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.65032258064516135</v>
       </c>
     </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F246">
         <v>234</v>
       </c>
       <c r="G246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63483870967741951</v>
       </c>
     </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F247">
         <v>235</v>
       </c>
       <c r="G247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61935483870967767</v>
       </c>
     </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F248">
         <v>236</v>
       </c>
       <c r="G248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6038709677419356</v>
       </c>
     </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F249">
         <v>237</v>
       </c>
       <c r="G249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58838709677419376</v>
       </c>
     </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F250">
         <v>238</v>
       </c>
       <c r="G250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55741935483870986</v>
       </c>
     </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F251">
         <v>239</v>
       </c>
       <c r="G251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.51096774193548411</v>
       </c>
     </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F252">
         <v>240</v>
       </c>
       <c r="G252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46451612903225836</v>
       </c>
     </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F253">
         <v>241</v>
       </c>
       <c r="G253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41806451612903217</v>
       </c>
     </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F254">
         <v>242</v>
       </c>
       <c r="G254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37161290322580642</v>
       </c>
     </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F255">
         <v>243</v>
       </c>
       <c r="G255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32516129032258068</v>
       </c>
     </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F256">
         <v>244</v>
       </c>
       <c r="G256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27870967741935493</v>
       </c>
     </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F257">
         <v>245</v>
       </c>
       <c r="G257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23225806451612918</v>
       </c>
     </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F258">
         <v>246</v>
       </c>
       <c r="G258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18580645161290343</v>
       </c>
     </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F259">
         <v>247</v>
       </c>
       <c r="G259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13935483870967769</v>
       </c>
     </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F260">
         <v>248</v>
       </c>
       <c r="G260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2903225806451495E-2</v>
       </c>
     </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F261">
         <v>249</v>
       </c>
       <c r="G261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6451612903225747E-2</v>
       </c>
     </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F262">
         <v>250</v>
       </c>
       <c r="G262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5410,7 +5454,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5422,7 +5466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Non-linear charging.xlsx
+++ b/Data/Non-linear charging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34B470D-463E-469B-AE69-59E71DCBD588}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C2B87FA-E106-4641-A24A-9356F10277C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
   </bookViews>
   <sheets>
     <sheet name="fleet (2)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'fleet (2)'!$A$1:$K$5</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'fleet (2)'!$A$1:$K$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -125,6 +125,21 @@
   <si>
     <t>f^-1</t>
   </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>mi / h</t>
+  </si>
+  <si>
+    <t>Time Break Points</t>
+  </si>
+  <si>
+    <t>% of charge break points</t>
+  </si>
+  <si>
+    <t>Charging Rates</t>
+  </si>
 </sst>
 </file>
 
@@ -159,10 +174,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,7 +244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1016,751 +1035,751 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="250"/>
                 <c:pt idx="0">
-                  <c:v>2.4606831119544594</c:v>
+                  <c:v>1.5077715146779775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4536242884250474</c:v>
+                  <c:v>1.5034462551624066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4465654648956359</c:v>
+                  <c:v>1.4991209956468357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4395066413662239</c:v>
+                  <c:v>1.4947957361312647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4324478178368123</c:v>
+                  <c:v>1.4904704766156938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4253889943074003</c:v>
+                  <c:v>1.4861452171001228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4183301707779887</c:v>
+                  <c:v>1.4818199575845519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4112713472485767</c:v>
+                  <c:v>1.4774946980689809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4042125237191652</c:v>
+                  <c:v>1.47316943855341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3971537001897532</c:v>
+                  <c:v>1.468844179037839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3900948766603416</c:v>
+                  <c:v>1.4645189195222683</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3830360531309296</c:v>
+                  <c:v>1.4601936600066974</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.375977229601518</c:v>
+                  <c:v>1.4558684004911264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3689184060721065</c:v>
+                  <c:v>1.4515431409755555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3618595825426945</c:v>
+                  <c:v>1.4472178814599845</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3548007590132829</c:v>
+                  <c:v>1.4428926219444136</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3477419354838709</c:v>
+                  <c:v>1.4385673624288426</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3406831119544593</c:v>
+                  <c:v>1.4342421029132717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3336242884250473</c:v>
+                  <c:v>1.4299168433977008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3265654648956358</c:v>
+                  <c:v>1.4255915838821298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3195066413662238</c:v>
+                  <c:v>1.4212663243665589</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3124478178368122</c:v>
+                  <c:v>1.4169410648509879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3053889943074006</c:v>
+                  <c:v>1.412615805335417</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2983301707779886</c:v>
+                  <c:v>1.408290545819846</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2912713472485771</c:v>
+                  <c:v>1.4039652863042751</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2842125237191651</c:v>
+                  <c:v>1.3996400267887041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2771537001897535</c:v>
+                  <c:v>1.3953147672731332</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2700948766603415</c:v>
+                  <c:v>1.3909895077575622</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2630360531309299</c:v>
+                  <c:v>1.3866642482419913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2559772296015179</c:v>
+                  <c:v>1.3823389887264204</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2489184060721064</c:v>
+                  <c:v>1.3780137292108496</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2418595825426944</c:v>
+                  <c:v>1.3736884696952787</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2348007590132828</c:v>
+                  <c:v>1.3693632101797077</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2277419354838708</c:v>
+                  <c:v>1.3650379506641368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2206831119544592</c:v>
+                  <c:v>1.3607126911485659</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2136242884250477</c:v>
+                  <c:v>1.3563874316329949</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2065654648956357</c:v>
+                  <c:v>1.352062172117424</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1995066413662241</c:v>
+                  <c:v>1.347736912601853</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1924478178368121</c:v>
+                  <c:v>1.3434116530862821</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.1853889943074005</c:v>
+                  <c:v>1.3390863935707111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1783301707779885</c:v>
+                  <c:v>1.3347611340551402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.171271347248577</c:v>
+                  <c:v>1.3304358745395692</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1642125237191649</c:v>
+                  <c:v>1.3261106150239983</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1571537001897534</c:v>
+                  <c:v>1.3217853555084274</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1500948766603414</c:v>
+                  <c:v>1.3174600959928564</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1430360531309298</c:v>
+                  <c:v>1.3131348364772855</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1359772296015178</c:v>
+                  <c:v>1.3088095769617145</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1289184060721063</c:v>
+                  <c:v>1.3044843174461436</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1218595825426947</c:v>
+                  <c:v>1.3001590579305726</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1148007590132827</c:v>
+                  <c:v>1.2958337984150017</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.1077419354838711</c:v>
+                  <c:v>1.2915085388994307</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.1006831119544591</c:v>
+                  <c:v>1.2871832793838598</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0936242884250476</c:v>
+                  <c:v>1.2828580198682888</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0865654648956355</c:v>
+                  <c:v>1.2785327603527181</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.079506641366224</c:v>
+                  <c:v>1.2742075008371472</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.072447817836812</c:v>
+                  <c:v>1.2698822413215762</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0653889943074004</c:v>
+                  <c:v>1.2655569818060053</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0583301707779889</c:v>
+                  <c:v>1.2612317222904343</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0512713472485768</c:v>
+                  <c:v>1.2569064627748634</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0442125237191648</c:v>
+                  <c:v>1.2525812032592925</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0371537001897533</c:v>
+                  <c:v>1.2482559437437215</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0300948766603417</c:v>
+                  <c:v>1.2439306842281506</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0230360531309297</c:v>
+                  <c:v>1.2396054247125796</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0159772296015182</c:v>
+                  <c:v>1.2352801651970087</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0089184060721061</c:v>
+                  <c:v>1.2309549056814377</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0018595825426946</c:v>
+                  <c:v>1.2266296461658668</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9948007590132828</c:v>
+                  <c:v>1.2223043866502958</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.987741935483871</c:v>
+                  <c:v>1.2179791271347249</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9806831119544592</c:v>
+                  <c:v>1.2136538676191539</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.9736242884250474</c:v>
+                  <c:v>1.209328608103583</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9665654648956357</c:v>
+                  <c:v>1.2050033485880121</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9595066413662239</c:v>
+                  <c:v>1.2006780890724413</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9524478178368121</c:v>
+                  <c:v>1.1963528295568704</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9453889943074003</c:v>
+                  <c:v>1.1920275700412994</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9383301707779887</c:v>
+                  <c:v>1.1877023105257285</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9312713472485767</c:v>
+                  <c:v>1.1833770510101576</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9242125237191652</c:v>
+                  <c:v>1.1790517914945866</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9171537001897532</c:v>
+                  <c:v>1.1747265319790157</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9100948766603416</c:v>
+                  <c:v>1.1704012724634447</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9030360531309298</c:v>
+                  <c:v>1.1660760129478738</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.895977229601518</c:v>
+                  <c:v>1.1617507534323028</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8889184060721063</c:v>
+                  <c:v>1.1574254939167319</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8818595825426945</c:v>
+                  <c:v>1.1531002344011609</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8748007590132827</c:v>
+                  <c:v>1.14877497488559</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8677419354838709</c:v>
+                  <c:v>1.144449715370019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8606831119544593</c:v>
+                  <c:v>1.1401244558544481</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8536242884250473</c:v>
+                  <c:v>1.1357991963388772</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8465654648956358</c:v>
+                  <c:v>1.1314739368233062</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8395066413662238</c:v>
+                  <c:v>1.1271486773077353</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8324478178368122</c:v>
+                  <c:v>1.1228234177921643</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8253889943074002</c:v>
+                  <c:v>1.1184981582765934</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8183301707779886</c:v>
+                  <c:v>1.1141728987610224</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8112713472485769</c:v>
+                  <c:v>1.1098476392454515</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8042125237191651</c:v>
+                  <c:v>1.1055223797298805</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.7971537001897533</c:v>
+                  <c:v>1.1011971202143096</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.7900948766603415</c:v>
+                  <c:v>1.0968718606987387</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.7830360531309297</c:v>
+                  <c:v>1.0925466011831677</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7759772296015179</c:v>
+                  <c:v>1.088221341667597</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.7689184060721064</c:v>
+                  <c:v>1.083896082152026</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.7618595825426944</c:v>
+                  <c:v>1.0795708226364551</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7548007590132828</c:v>
+                  <c:v>1.0752455631208842</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.7477419354838708</c:v>
+                  <c:v>1.0709203036053132</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.7406831119544592</c:v>
+                  <c:v>1.0665950440897423</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.7336242884250475</c:v>
+                  <c:v>1.0622697845741713</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.7265654648956357</c:v>
+                  <c:v>1.0579445250586004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.7195066413662239</c:v>
+                  <c:v>1.0536192655430294</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.7124478178368121</c:v>
+                  <c:v>1.0492940060274585</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.7053889943074003</c:v>
+                  <c:v>1.0449687465118875</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.6983301707779885</c:v>
+                  <c:v>1.0406434869963166</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.691271347248577</c:v>
+                  <c:v>1.0363182274807456</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.684212523719165</c:v>
+                  <c:v>1.0319929679651747</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.6771537001897534</c:v>
+                  <c:v>1.0276677084496038</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.6700948766603414</c:v>
+                  <c:v>1.0233424489340328</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.6630360531309298</c:v>
+                  <c:v>1.0190171894184621</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.6559772296015181</c:v>
+                  <c:v>1.0146919299028911</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.6489184060721063</c:v>
+                  <c:v>1.0103666703873202</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.6418595825426945</c:v>
+                  <c:v>1.0060414108717493</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.6348007590132827</c:v>
+                  <c:v>1.0017161513561783</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.6277419354838709</c:v>
+                  <c:v>0.99739089184060725</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6206831119544591</c:v>
+                  <c:v>0.99306563232503631</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.6136242884250476</c:v>
+                  <c:v>0.98874037280946536</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.6065654648956356</c:v>
+                  <c:v>0.98441511329389453</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.599506641366224</c:v>
+                  <c:v>0.98008985377832358</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.592447817836812</c:v>
+                  <c:v>0.97576459426275264</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.5853889943074004</c:v>
+                  <c:v>0.97143933474718169</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.5783301707779884</c:v>
+                  <c:v>0.96711407523161075</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5712713472485769</c:v>
+                  <c:v>0.9627888157160398</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.5642125237191651</c:v>
+                  <c:v>0.95846355620046886</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.5571537001897533</c:v>
+                  <c:v>0.95413829668489791</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.5500948766603415</c:v>
+                  <c:v>0.94981303716932697</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.5430360531309297</c:v>
+                  <c:v>0.94548777765375602</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.5359772296015179</c:v>
+                  <c:v>0.94116251813818519</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.5289184060721062</c:v>
+                  <c:v>0.93683725862261424</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.5218595825426946</c:v>
+                  <c:v>0.9325119991070433</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.5148007590132826</c:v>
+                  <c:v>0.92818673959147235</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.507741935483871</c:v>
+                  <c:v>0.92386148007590141</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.500683111954459</c:v>
+                  <c:v>0.91953622056033046</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4936242884250475</c:v>
+                  <c:v>0.91521096104475952</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.4865654648956357</c:v>
+                  <c:v>0.91088570152918857</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.4795066413662239</c:v>
+                  <c:v>0.90656044201361763</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.4724478178368121</c:v>
+                  <c:v>0.90223518249804668</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.4653889943074003</c:v>
+                  <c:v>0.89790992298247574</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.4583301707779885</c:v>
+                  <c:v>0.8935846634669049</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.4512713472485768</c:v>
+                  <c:v>0.88925940395133396</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.444212523719165</c:v>
+                  <c:v>0.88493414443576301</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.4371537001897532</c:v>
+                  <c:v>0.88060888492019207</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.4300948766603414</c:v>
+                  <c:v>0.87628362540462112</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1.4230360531309298</c:v>
+                  <c:v>0.87195836588905018</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.4159772296015181</c:v>
+                  <c:v>0.86763310637347923</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.4089184060721063</c:v>
+                  <c:v>0.86330784685790829</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.4018595825426945</c:v>
+                  <c:v>0.85898258734233734</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.3948007590132827</c:v>
+                  <c:v>0.8546573278267664</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.3877419354838709</c:v>
+                  <c:v>0.85033206831119557</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.3806831119544591</c:v>
+                  <c:v>0.84600680879562462</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.3736242884250474</c:v>
+                  <c:v>0.84168154928005368</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.3665654648956356</c:v>
+                  <c:v>0.83735628976448273</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.3595066413662238</c:v>
+                  <c:v>0.83303103024891179</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.352447817836812</c:v>
+                  <c:v>0.82870577073334084</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.3453889943074004</c:v>
+                  <c:v>0.8243805112177699</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.3383301707779887</c:v>
+                  <c:v>0.82005525170219895</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.3312713472485769</c:v>
+                  <c:v>0.81572999218662801</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.3242125237191651</c:v>
+                  <c:v>0.81140473267105706</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.3171537001897533</c:v>
+                  <c:v>0.80707947315548612</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.3100948766603415</c:v>
+                  <c:v>0.80275421363991528</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.3030360531309297</c:v>
+                  <c:v>0.79842895412434434</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.295977229601518</c:v>
+                  <c:v>0.79410369460877339</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.2889184060721062</c:v>
+                  <c:v>0.78977843509320245</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.2818595825426944</c:v>
+                  <c:v>0.7854531755776315</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.2748007590132826</c:v>
+                  <c:v>0.78112791606206056</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.2677419354838708</c:v>
+                  <c:v>0.77680265654648961</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.2606831119544593</c:v>
+                  <c:v>0.77247739703091867</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.2536242884250475</c:v>
+                  <c:v>0.76815213751534772</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.2465654648956357</c:v>
+                  <c:v>0.76382687799977678</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.2395066413662239</c:v>
+                  <c:v>0.75950161848420594</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.2324478178368121</c:v>
+                  <c:v>0.755176358968635</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.2253889943074003</c:v>
+                  <c:v>0.75085109945306405</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.2183301707779886</c:v>
+                  <c:v>0.74652583993749311</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.2112713472485768</c:v>
+                  <c:v>0.74220058042192216</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.204212523719165</c:v>
+                  <c:v>0.73787532090635122</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.1971537001897532</c:v>
+                  <c:v>0.73355006139078027</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.1900948766603414</c:v>
+                  <c:v>0.72922480187520933</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.1830360531309296</c:v>
+                  <c:v>0.72489954235963838</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.1759772296015181</c:v>
+                  <c:v>0.72057428284406744</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.1689184060721063</c:v>
+                  <c:v>0.71624902332849649</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.1618595825426945</c:v>
+                  <c:v>0.71192376381292566</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.1548007590132827</c:v>
+                  <c:v>0.70759850429735471</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.1477419354838709</c:v>
+                  <c:v>0.70327324478178377</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.1406831119544592</c:v>
+                  <c:v>0.69894798526621282</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.1336242884250474</c:v>
+                  <c:v>0.69462272575064188</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.1265654648956356</c:v>
+                  <c:v>0.69029746623507093</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.1195066413662238</c:v>
+                  <c:v>0.68597220671949999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.112447817836812</c:v>
+                  <c:v>0.68164694720392904</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.1053889943074002</c:v>
+                  <c:v>0.6773216876883581</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.0983301707779884</c:v>
+                  <c:v>0.67299642817278715</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.0912713472485769</c:v>
+                  <c:v>0.66867116865721632</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.0842125237191651</c:v>
+                  <c:v>0.66434590914164537</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.0771537001897533</c:v>
+                  <c:v>0.66002064962607443</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.0700948766603415</c:v>
+                  <c:v>0.65569539011050348</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.0630360531309297</c:v>
+                  <c:v>0.65137013059493254</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.055977229601518</c:v>
+                  <c:v>0.64704487107936159</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.0489184060721062</c:v>
+                  <c:v>0.64271961156379065</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.0418595825426944</c:v>
+                  <c:v>0.6383943520482197</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.0348007590132826</c:v>
+                  <c:v>0.63406909253264876</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.0277419354838708</c:v>
+                  <c:v>0.62974383301707781</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.020683111954459</c:v>
+                  <c:v>0.62541857350150687</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.0136242884250473</c:v>
+                  <c:v>0.62109331398593604</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.0065654648956357</c:v>
+                  <c:v>0.61676805447036509</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.99950664136622391</c:v>
+                  <c:v>0.61244279495479415</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.99244781783681213</c:v>
+                  <c:v>0.6081175354392232</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.98538899430740035</c:v>
+                  <c:v>0.60379227592365226</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.97833017077798856</c:v>
+                  <c:v>0.59946701640808131</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.97127134724857678</c:v>
+                  <c:v>0.59514175689251037</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.96</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.94451612903225812</c:v>
+                  <c:v>0.57874762808349145</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.92903225806451628</c:v>
+                  <c:v>0.56925996204933593</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.91354838709677422</c:v>
+                  <c:v>0.5597722960151803</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.89806451612903238</c:v>
+                  <c:v>0.55028462998102468</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.88258064516129031</c:v>
+                  <c:v>0.54079696394686905</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.86709677419354847</c:v>
+                  <c:v>0.53130929791271342</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.85161290322580641</c:v>
+                  <c:v>0.5218216318785579</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.83612903225806456</c:v>
+                  <c:v>0.51233396584440227</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.82064516129032272</c:v>
+                  <c:v>0.50284629981024676</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.80516129032258066</c:v>
+                  <c:v>0.49335863377609113</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.78967741935483882</c:v>
+                  <c:v>0.4838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.77419354838709697</c:v>
+                  <c:v>0.47438330170777987</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.75870967741935491</c:v>
+                  <c:v>0.46489563567362424</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.74322580645161307</c:v>
+                  <c:v>0.45540796963946861</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.72774193548387101</c:v>
+                  <c:v>0.44592030360531298</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.71225806451612916</c:v>
+                  <c:v>0.43643263757115758</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.6967741935483871</c:v>
+                  <c:v>0.42694497153700173</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.68129032258064526</c:v>
+                  <c:v>0.41745730550284632</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.66580645161290342</c:v>
+                  <c:v>0.40796963946869069</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.65032258064516135</c:v>
+                  <c:v>0.39848197343453506</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.63483870967741951</c:v>
+                  <c:v>0.38899430740037944</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.61935483870967767</c:v>
+                  <c:v>0.37950664136622381</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.6038709677419356</c:v>
+                  <c:v>0.37001897533206818</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.58838709677419376</c:v>
+                  <c:v>0.36053130929791255</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.55741935483870986</c:v>
+                  <c:v>0.34155597722960152</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.51096774193548411</c:v>
+                  <c:v>0.31309297912713463</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.46451612903225836</c:v>
+                  <c:v>0.28462998102466797</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.41806451612903217</c:v>
+                  <c:v>0.25616698292220108</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.37161290322580642</c:v>
+                  <c:v>0.2277039848197342</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.32516129032258068</c:v>
+                  <c:v>0.19924098671726753</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.27870967741935493</c:v>
+                  <c:v>0.17077798861480065</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.23225806451612918</c:v>
+                  <c:v>0.14231499051233398</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.18580645161290343</c:v>
+                  <c:v>0.1138519924098671</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.13935483870967769</c:v>
+                  <c:v>8.5388994307400434E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>9.2903225806451495E-2</c:v>
+                  <c:v>5.6925996204933549E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>4.6451612903225747E-2</c:v>
+                  <c:v>2.8462998102466663E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>0</c:v>
@@ -1828,7 +1847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1781665695"/>
@@ -1887,7 +1906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2021736495"/>
@@ -1928,7 +1947,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2559,8 +2578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6914940-6404-4EB2-A5EE-399D426108F2}" name="Table_fleet" displayName="Table_fleet" ref="A1:K5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K5" xr:uid="{D6914940-6404-4EB2-A5EE-399D426108F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6914940-6404-4EB2-A5EE-399D426108F2}" name="Table_fleet" displayName="Table_fleet" ref="A1:K6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{D6914940-6404-4EB2-A5EE-399D426108F2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EF9DE92F-B94A-494E-A6D0-AA74E2AB7D45}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{62704CC6-2E5D-40EC-B5C8-90419345CC43}" uniqueName="2" name="Table.departure_node" queryTableFieldId="2"/>
@@ -2875,28 +2894,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAD5C0-1AED-4C35-8640-9E4C67D3B1FC}">
-  <dimension ref="A1:K262"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="122" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3001,7 +3020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3036,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3071,12 +3090,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>INTERCEPT(D8:D9,E8:E9)</f>
         <v>2.2737367544323206E-13</v>
@@ -3098,13 +3135,23 @@
         <v>0.85</v>
       </c>
       <c r="I8">
-        <f>1.5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <f>G8/L9</f>
+        <v>0.91911764705882359</v>
+      </c>
+      <c r="J8">
+        <f>(G8-G7)/(I8-I7)</f>
+        <v>231.2</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" ref="C9:C11" si="0">INTERCEPT(D9:D10,E9:E10)</f>
+        <f t="shared" ref="C9:C10" si="0">INTERCEPT(D9:D10,E9:E10)</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -3125,10 +3172,21 @@
       </c>
       <c r="I9">
         <f>I8*I4/I3</f>
-        <v>1.8870967741935483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1563092979127136</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="1">(G9-G8)/(I9-I8)</f>
+        <v>105.39999999999995</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <f>L8*K9/K8</f>
+        <v>231.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>-1.4210854715202004E-14</v>
@@ -3150,10 +3208,14 @@
       </c>
       <c r="I10">
         <f>I8*I5/I3</f>
-        <v>2.467741935483871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5120967741935485</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>35.13333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>0</v>
       </c>
@@ -3161,2287 +3223,2288 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
         <f>$I$10-((MIN(F13,$G$8)-$G$7)/$I$15+IF(F13&gt;=$G$8,1,0)*(MIN(F13,$G$9)-$G$8)/$I$14+IF(F13&gt;=$G$9,1,0)*(MIN(F13,$G$10)-$G$9)/$I$13)</f>
-        <v>2.4606831119544594</v>
+        <v>1.5077715146779775</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I13">
         <f>(G10-G9)/(I10-I9)</f>
-        <v>21.527777777777771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35.13333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G77" si="1">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
-        <v>2.4536242884250474</v>
+        <f t="shared" ref="G14:G77" si="2">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
+        <v>1.5034462551624066</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I14">
         <f>(G9-G8)/(I9-I8)</f>
-        <v>64.583333333333357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>105.39999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>2.4465654648956359</v>
+        <f t="shared" si="2"/>
+        <v>1.4991209956468357</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I15">
         <f>(G8-G7)/(I8-I7)</f>
-        <v>141.66666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>231.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>2.4395066413662239</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4947957361312647</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>2.4324478178368123</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4904704766156938</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2.4253889943074003</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4861452171001228</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>7</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>2.4183301707779887</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4818199575845519</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>2.4112713472485767</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4774946980689809</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2.4042125237191652</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.47316943855341</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2.3971537001897532</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.468844179037839</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>11</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>2.3900948766603416</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4645189195222683</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>12</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>2.3830360531309296</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4601936600066974</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>13</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>2.375977229601518</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4558684004911264</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>14</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>2.3689184060721065</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4515431409755555</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>15</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>2.3618595825426945</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4472178814599845</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>16</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>2.3548007590132829</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4428926219444136</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>17</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>2.3477419354838709</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4385673624288426</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>18</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>2.3406831119544593</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4342421029132717</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>19</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>2.3336242884250473</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4299168433977008</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>2.3265654648956358</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4255915838821298</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>21</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>2.3195066413662238</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4212663243665589</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>22</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>2.3124478178368122</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4169410648509879</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>23</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>2.3053889943074006</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.412615805335417</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>24</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>2.2983301707779886</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.408290545819846</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>25</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>2.2912713472485771</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.4039652863042751</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>26</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>2.2842125237191651</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3996400267887041</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>27</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>2.2771537001897535</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3953147672731332</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>28</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>2.2700948766603415</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3909895077575622</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>29</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>2.2630360531309299</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3866642482419913</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>2.2559772296015179</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3823389887264204</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>31</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>2.2489184060721064</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3780137292108496</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>32</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>2.2418595825426944</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3736884696952787</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>33</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>2.2348007590132828</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3693632101797077</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>34</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>2.2277419354838708</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3650379506641368</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>35</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>2.2206831119544592</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3607126911485659</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>36</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>2.2136242884250477</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3563874316329949</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>37</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>2.2065654648956357</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.352062172117424</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>38</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>2.1995066413662241</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.347736912601853</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>39</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>2.1924478178368121</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3434116530862821</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>40</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>2.1853889943074005</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3390863935707111</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>41</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>2.1783301707779885</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3347611340551402</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>42</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>2.171271347248577</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3304358745395692</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>43</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>2.1642125237191649</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3261106150239983</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>44</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>2.1571537001897534</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3217853555084274</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>45</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>2.1500948766603414</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3174600959928564</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>46</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>2.1430360531309298</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3131348364772855</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>47</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>2.1359772296015178</v>
-      </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3088095769617145</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>48</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>2.1289184060721063</v>
-      </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3044843174461436</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>49</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>2.1218595825426947</v>
-      </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.3001590579305726</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>50</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>2.1148007590132827</v>
-      </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2958337984150017</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>51</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>2.1077419354838711</v>
-      </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2915085388994307</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>52</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>2.1006831119544591</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2871832793838598</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>53</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>2.0936242884250476</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2828580198682888</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>54</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>2.0865654648956355</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2785327603527181</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>55</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
-        <v>2.079506641366224</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2742075008371472</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68">
         <v>56</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
-        <v>2.072447817836812</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2698822413215762</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69">
         <v>57</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
-        <v>2.0653889943074004</v>
-      </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2655569818060053</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70">
         <v>58</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
-        <v>2.0583301707779889</v>
-      </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2612317222904343</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71">
         <v>59</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
-        <v>2.0512713472485768</v>
-      </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2569064627748634</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72">
         <v>60</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
-        <v>2.0442125237191648</v>
-      </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2525812032592925</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73">
         <v>61</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
-        <v>2.0371537001897533</v>
-      </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2482559437437215</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74">
         <v>62</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
-        <v>2.0300948766603417</v>
-      </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2439306842281506</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75">
         <v>63</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
-        <v>2.0230360531309297</v>
-      </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2396054247125796</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76">
         <v>64</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
-        <v>2.0159772296015182</v>
-      </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2352801651970087</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77">
         <v>65</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
-        <v>2.0089184060721061</v>
-      </c>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1.2309549056814377</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78">
         <v>66</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:G141" si="2">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
-        <v>2.0018595825426946</v>
-      </c>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G78:G141" si="3">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
+        <v>1.2266296461658668</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79">
         <v>67</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
-        <v>1.9948007590132828</v>
-      </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2223043866502958</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80">
         <v>68</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
-        <v>1.987741935483871</v>
-      </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2179791271347249</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81">
         <v>69</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
-        <v>1.9806831119544592</v>
-      </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2136538676191539</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82">
         <v>70</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
-        <v>1.9736242884250474</v>
-      </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.209328608103583</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83">
         <v>71</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
-        <v>1.9665654648956357</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2050033485880121</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84">
         <v>72</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
-        <v>1.9595066413662239</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.2006780890724413</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85">
         <v>73</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
-        <v>1.9524478178368121</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1963528295568704</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86">
         <v>74</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
-        <v>1.9453889943074003</v>
-      </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1920275700412994</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87">
         <v>75</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
-        <v>1.9383301707779887</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1877023105257285</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88">
         <v>76</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
-        <v>1.9312713472485767</v>
-      </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1833770510101576</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89">
         <v>77</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
-        <v>1.9242125237191652</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1790517914945866</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>78</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
-        <v>1.9171537001897532</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1747265319790157</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91">
         <v>79</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
-        <v>1.9100948766603416</v>
-      </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1704012724634447</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92">
         <v>80</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
-        <v>1.9030360531309298</v>
-      </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1660760129478738</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>81</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
-        <v>1.895977229601518</v>
-      </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1617507534323028</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>82</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
-        <v>1.8889184060721063</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1574254939167319</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95">
         <v>83</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
-        <v>1.8818595825426945</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1531002344011609</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96">
         <v>84</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
-        <v>1.8748007590132827</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.14877497488559</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97">
         <v>85</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
-        <v>1.8677419354838709</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.144449715370019</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98">
         <v>86</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
-        <v>1.8606831119544593</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1401244558544481</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99">
         <v>87</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
-        <v>1.8536242884250473</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1357991963388772</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100">
         <v>88</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
-        <v>1.8465654648956358</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1314739368233062</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101">
         <v>89</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
-        <v>1.8395066413662238</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1271486773077353</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102">
         <v>90</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
-        <v>1.8324478178368122</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1228234177921643</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103">
         <v>91</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
-        <v>1.8253889943074002</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1184981582765934</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104">
         <v>92</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
-        <v>1.8183301707779886</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1141728987610224</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105">
         <v>93</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
-        <v>1.8112713472485769</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1098476392454515</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106">
         <v>94</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
-        <v>1.8042125237191651</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1055223797298805</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107">
         <v>95</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
-        <v>1.7971537001897533</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.1011971202143096</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108">
         <v>96</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
-        <v>1.7900948766603415</v>
-      </c>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0968718606987387</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109">
         <v>97</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
-        <v>1.7830360531309297</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0925466011831677</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110">
         <v>98</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
-        <v>1.7759772296015179</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.088221341667597</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111">
         <v>99</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
-        <v>1.7689184060721064</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.083896082152026</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112">
         <v>100</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
-        <v>1.7618595825426944</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0795708226364551</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113">
         <v>101</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
-        <v>1.7548007590132828</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0752455631208842</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114">
         <v>102</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
-        <v>1.7477419354838708</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0709203036053132</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115">
         <v>103</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
-        <v>1.7406831119544592</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0665950440897423</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116">
         <v>104</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
-        <v>1.7336242884250475</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0622697845741713</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117">
         <v>105</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
-        <v>1.7265654648956357</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0579445250586004</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118">
         <v>106</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
-        <v>1.7195066413662239</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0536192655430294</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119">
         <v>107</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
-        <v>1.7124478178368121</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0492940060274585</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120">
         <v>108</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
-        <v>1.7053889943074003</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0449687465118875</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121">
         <v>109</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
-        <v>1.6983301707779885</v>
-      </c>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0406434869963166</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F122">
         <v>110</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
-        <v>1.691271347248577</v>
-      </c>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0363182274807456</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F123">
         <v>111</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
-        <v>1.684212523719165</v>
-      </c>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0319929679651747</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F124">
         <v>112</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
-        <v>1.6771537001897534</v>
-      </c>
-    </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0276677084496038</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F125">
         <v>113</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
-        <v>1.6700948766603414</v>
-      </c>
-    </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0233424489340328</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F126">
         <v>114</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
-        <v>1.6630360531309298</v>
-      </c>
-    </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0190171894184621</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F127">
         <v>115</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
-        <v>1.6559772296015181</v>
-      </c>
-    </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0146919299028911</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F128">
         <v>116</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
-        <v>1.6489184060721063</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0103666703873202</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129">
         <v>117</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
-        <v>1.6418595825426945</v>
-      </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0060414108717493</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F130">
         <v>118</v>
       </c>
       <c r="G130">
-        <f t="shared" si="2"/>
-        <v>1.6348007590132827</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1.0017161513561783</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131">
         <v>119</v>
       </c>
       <c r="G131">
-        <f t="shared" si="2"/>
-        <v>1.6277419354838709</v>
-      </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.99739089184060725</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132">
         <v>120</v>
       </c>
       <c r="G132">
-        <f t="shared" si="2"/>
-        <v>1.6206831119544591</v>
-      </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.99306563232503631</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F133">
         <v>121</v>
       </c>
       <c r="G133">
-        <f t="shared" si="2"/>
-        <v>1.6136242884250476</v>
-      </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.98874037280946536</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134">
         <v>122</v>
       </c>
       <c r="G134">
-        <f t="shared" si="2"/>
-        <v>1.6065654648956356</v>
-      </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.98441511329389453</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F135">
         <v>123</v>
       </c>
       <c r="G135">
-        <f t="shared" si="2"/>
-        <v>1.599506641366224</v>
-      </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.98008985377832358</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F136">
         <v>124</v>
       </c>
       <c r="G136">
-        <f t="shared" si="2"/>
-        <v>1.592447817836812</v>
-      </c>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.97576459426275264</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F137">
         <v>125</v>
       </c>
       <c r="G137">
-        <f t="shared" si="2"/>
-        <v>1.5853889943074004</v>
-      </c>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.97143933474718169</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F138">
         <v>126</v>
       </c>
       <c r="G138">
-        <f t="shared" si="2"/>
-        <v>1.5783301707779884</v>
-      </c>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.96711407523161075</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F139">
         <v>127</v>
       </c>
       <c r="G139">
-        <f t="shared" si="2"/>
-        <v>1.5712713472485769</v>
-      </c>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.9627888157160398</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F140">
         <v>128</v>
       </c>
       <c r="G140">
-        <f t="shared" si="2"/>
-        <v>1.5642125237191651</v>
-      </c>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.95846355620046886</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F141">
         <v>129</v>
       </c>
       <c r="G141">
-        <f t="shared" si="2"/>
-        <v>1.5571537001897533</v>
-      </c>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.95413829668489791</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F142">
         <v>130</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G205" si="3">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
-        <v>1.5500948766603415</v>
-      </c>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G142:G205" si="4">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
+        <v>0.94981303716932697</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F143">
         <v>131</v>
       </c>
       <c r="G143">
-        <f t="shared" si="3"/>
-        <v>1.5430360531309297</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.94548777765375602</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F144">
         <v>132</v>
       </c>
       <c r="G144">
-        <f t="shared" si="3"/>
-        <v>1.5359772296015179</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.94116251813818519</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F145">
         <v>133</v>
       </c>
       <c r="G145">
-        <f t="shared" si="3"/>
-        <v>1.5289184060721062</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.93683725862261424</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F146">
         <v>134</v>
       </c>
       <c r="G146">
-        <f t="shared" si="3"/>
-        <v>1.5218595825426946</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.9325119991070433</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F147">
         <v>135</v>
       </c>
       <c r="G147">
-        <f t="shared" si="3"/>
-        <v>1.5148007590132826</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.92818673959147235</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F148">
         <v>136</v>
       </c>
       <c r="G148">
-        <f t="shared" si="3"/>
-        <v>1.507741935483871</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.92386148007590141</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F149">
         <v>137</v>
       </c>
       <c r="G149">
-        <f t="shared" si="3"/>
-        <v>1.500683111954459</v>
-      </c>
-    </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.91953622056033046</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F150">
         <v>138</v>
       </c>
       <c r="G150">
-        <f t="shared" si="3"/>
-        <v>1.4936242884250475</v>
-      </c>
-    </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.91521096104475952</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F151">
         <v>139</v>
       </c>
       <c r="G151">
-        <f t="shared" si="3"/>
-        <v>1.4865654648956357</v>
-      </c>
-    </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.91088570152918857</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F152">
         <v>140</v>
       </c>
       <c r="G152">
-        <f t="shared" si="3"/>
-        <v>1.4795066413662239</v>
-      </c>
-    </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.90656044201361763</v>
+      </c>
+    </row>
+    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F153">
         <v>141</v>
       </c>
       <c r="G153">
-        <f t="shared" si="3"/>
-        <v>1.4724478178368121</v>
-      </c>
-    </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.90223518249804668</v>
+      </c>
+    </row>
+    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F154">
         <v>142</v>
       </c>
       <c r="G154">
-        <f t="shared" si="3"/>
-        <v>1.4653889943074003</v>
-      </c>
-    </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.89790992298247574</v>
+      </c>
+    </row>
+    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F155">
         <v>143</v>
       </c>
       <c r="G155">
-        <f t="shared" si="3"/>
-        <v>1.4583301707779885</v>
-      </c>
-    </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.8935846634669049</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F156">
         <v>144</v>
       </c>
       <c r="G156">
-        <f t="shared" si="3"/>
-        <v>1.4512713472485768</v>
-      </c>
-    </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.88925940395133396</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F157">
         <v>145</v>
       </c>
       <c r="G157">
-        <f t="shared" si="3"/>
-        <v>1.444212523719165</v>
-      </c>
-    </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.88493414443576301</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F158">
         <v>146</v>
       </c>
       <c r="G158">
-        <f t="shared" si="3"/>
-        <v>1.4371537001897532</v>
-      </c>
-    </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.88060888492019207</v>
+      </c>
+    </row>
+    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F159">
         <v>147</v>
       </c>
       <c r="G159">
-        <f t="shared" si="3"/>
-        <v>1.4300948766603414</v>
-      </c>
-    </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.87628362540462112</v>
+      </c>
+    </row>
+    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F160">
         <v>148</v>
       </c>
       <c r="G160">
-        <f t="shared" si="3"/>
-        <v>1.4230360531309298</v>
-      </c>
-    </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.87195836588905018</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F161">
         <v>149</v>
       </c>
       <c r="G161">
-        <f t="shared" si="3"/>
-        <v>1.4159772296015181</v>
-      </c>
-    </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.86763310637347923</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F162">
         <v>150</v>
       </c>
       <c r="G162">
-        <f t="shared" si="3"/>
-        <v>1.4089184060721063</v>
-      </c>
-    </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.86330784685790829</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F163">
         <v>151</v>
       </c>
       <c r="G163">
-        <f t="shared" si="3"/>
-        <v>1.4018595825426945</v>
-      </c>
-    </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.85898258734233734</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F164">
         <v>152</v>
       </c>
       <c r="G164">
-        <f t="shared" si="3"/>
-        <v>1.3948007590132827</v>
-      </c>
-    </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.8546573278267664</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F165">
         <v>153</v>
       </c>
       <c r="G165">
-        <f t="shared" si="3"/>
-        <v>1.3877419354838709</v>
-      </c>
-    </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.85033206831119557</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F166">
         <v>154</v>
       </c>
       <c r="G166">
-        <f t="shared" si="3"/>
-        <v>1.3806831119544591</v>
-      </c>
-    </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.84600680879562462</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F167">
         <v>155</v>
       </c>
       <c r="G167">
-        <f t="shared" si="3"/>
-        <v>1.3736242884250474</v>
-      </c>
-    </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.84168154928005368</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F168">
         <v>156</v>
       </c>
       <c r="G168">
-        <f t="shared" si="3"/>
-        <v>1.3665654648956356</v>
-      </c>
-    </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.83735628976448273</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F169">
         <v>157</v>
       </c>
       <c r="G169">
-        <f t="shared" si="3"/>
-        <v>1.3595066413662238</v>
-      </c>
-    </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.83303103024891179</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F170">
         <v>158</v>
       </c>
       <c r="G170">
-        <f t="shared" si="3"/>
-        <v>1.352447817836812</v>
-      </c>
-    </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.82870577073334084</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F171">
         <v>159</v>
       </c>
       <c r="G171">
-        <f t="shared" si="3"/>
-        <v>1.3453889943074004</v>
-      </c>
-    </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.8243805112177699</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F172">
         <v>160</v>
       </c>
       <c r="G172">
-        <f t="shared" si="3"/>
-        <v>1.3383301707779887</v>
-      </c>
-    </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.82005525170219895</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F173">
         <v>161</v>
       </c>
       <c r="G173">
-        <f t="shared" si="3"/>
-        <v>1.3312713472485769</v>
-      </c>
-    </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.81572999218662801</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F174">
         <v>162</v>
       </c>
       <c r="G174">
-        <f t="shared" si="3"/>
-        <v>1.3242125237191651</v>
-      </c>
-    </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.81140473267105706</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F175">
         <v>163</v>
       </c>
       <c r="G175">
-        <f t="shared" si="3"/>
-        <v>1.3171537001897533</v>
-      </c>
-    </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.80707947315548612</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F176">
         <v>164</v>
       </c>
       <c r="G176">
-        <f t="shared" si="3"/>
-        <v>1.3100948766603415</v>
-      </c>
-    </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.80275421363991528</v>
+      </c>
+    </row>
+    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F177">
         <v>165</v>
       </c>
       <c r="G177">
-        <f t="shared" si="3"/>
-        <v>1.3030360531309297</v>
-      </c>
-    </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.79842895412434434</v>
+      </c>
+    </row>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F178">
         <v>166</v>
       </c>
       <c r="G178">
-        <f t="shared" si="3"/>
-        <v>1.295977229601518</v>
-      </c>
-    </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.79410369460877339</v>
+      </c>
+    </row>
+    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F179">
         <v>167</v>
       </c>
       <c r="G179">
-        <f t="shared" si="3"/>
-        <v>1.2889184060721062</v>
-      </c>
-    </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.78977843509320245</v>
+      </c>
+    </row>
+    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F180">
         <v>168</v>
       </c>
       <c r="G180">
-        <f t="shared" si="3"/>
-        <v>1.2818595825426944</v>
-      </c>
-    </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.7854531755776315</v>
+      </c>
+    </row>
+    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F181">
         <v>169</v>
       </c>
       <c r="G181">
-        <f t="shared" si="3"/>
-        <v>1.2748007590132826</v>
-      </c>
-    </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.78112791606206056</v>
+      </c>
+    </row>
+    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F182">
         <v>170</v>
       </c>
       <c r="G182">
-        <f t="shared" si="3"/>
-        <v>1.2677419354838708</v>
-      </c>
-    </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.77680265654648961</v>
+      </c>
+    </row>
+    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F183">
         <v>171</v>
       </c>
       <c r="G183">
-        <f t="shared" si="3"/>
-        <v>1.2606831119544593</v>
-      </c>
-    </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.77247739703091867</v>
+      </c>
+    </row>
+    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F184">
         <v>172</v>
       </c>
       <c r="G184">
-        <f t="shared" si="3"/>
-        <v>1.2536242884250475</v>
-      </c>
-    </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.76815213751534772</v>
+      </c>
+    </row>
+    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F185">
         <v>173</v>
       </c>
       <c r="G185">
-        <f t="shared" si="3"/>
-        <v>1.2465654648956357</v>
-      </c>
-    </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.76382687799977678</v>
+      </c>
+    </row>
+    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F186">
         <v>174</v>
       </c>
       <c r="G186">
-        <f t="shared" si="3"/>
-        <v>1.2395066413662239</v>
-      </c>
-    </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.75950161848420594</v>
+      </c>
+    </row>
+    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F187">
         <v>175</v>
       </c>
       <c r="G187">
-        <f t="shared" si="3"/>
-        <v>1.2324478178368121</v>
-      </c>
-    </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.755176358968635</v>
+      </c>
+    </row>
+    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F188">
         <v>176</v>
       </c>
       <c r="G188">
-        <f t="shared" si="3"/>
-        <v>1.2253889943074003</v>
-      </c>
-    </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.75085109945306405</v>
+      </c>
+    </row>
+    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F189">
         <v>177</v>
       </c>
       <c r="G189">
-        <f t="shared" si="3"/>
-        <v>1.2183301707779886</v>
-      </c>
-    </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.74652583993749311</v>
+      </c>
+    </row>
+    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F190">
         <v>178</v>
       </c>
       <c r="G190">
-        <f t="shared" si="3"/>
-        <v>1.2112713472485768</v>
-      </c>
-    </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.74220058042192216</v>
+      </c>
+    </row>
+    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F191">
         <v>179</v>
       </c>
       <c r="G191">
-        <f t="shared" si="3"/>
-        <v>1.204212523719165</v>
-      </c>
-    </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.73787532090635122</v>
+      </c>
+    </row>
+    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F192">
         <v>180</v>
       </c>
       <c r="G192">
-        <f t="shared" si="3"/>
-        <v>1.1971537001897532</v>
-      </c>
-    </row>
-    <row r="193" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.73355006139078027</v>
+      </c>
+    </row>
+    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F193">
         <v>181</v>
       </c>
       <c r="G193">
-        <f t="shared" si="3"/>
-        <v>1.1900948766603414</v>
-      </c>
-    </row>
-    <row r="194" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.72922480187520933</v>
+      </c>
+    </row>
+    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F194">
         <v>182</v>
       </c>
       <c r="G194">
-        <f t="shared" si="3"/>
-        <v>1.1830360531309296</v>
-      </c>
-    </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.72489954235963838</v>
+      </c>
+    </row>
+    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F195">
         <v>183</v>
       </c>
       <c r="G195">
-        <f t="shared" si="3"/>
-        <v>1.1759772296015181</v>
-      </c>
-    </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.72057428284406744</v>
+      </c>
+    </row>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F196">
         <v>184</v>
       </c>
       <c r="G196">
-        <f t="shared" si="3"/>
-        <v>1.1689184060721063</v>
-      </c>
-    </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.71624902332849649</v>
+      </c>
+    </row>
+    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F197">
         <v>185</v>
       </c>
       <c r="G197">
-        <f t="shared" si="3"/>
-        <v>1.1618595825426945</v>
-      </c>
-    </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.71192376381292566</v>
+      </c>
+    </row>
+    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F198">
         <v>186</v>
       </c>
       <c r="G198">
-        <f t="shared" si="3"/>
-        <v>1.1548007590132827</v>
-      </c>
-    </row>
-    <row r="199" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.70759850429735471</v>
+      </c>
+    </row>
+    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F199">
         <v>187</v>
       </c>
       <c r="G199">
-        <f t="shared" si="3"/>
-        <v>1.1477419354838709</v>
-      </c>
-    </row>
-    <row r="200" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.70327324478178377</v>
+      </c>
+    </row>
+    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F200">
         <v>188</v>
       </c>
       <c r="G200">
-        <f t="shared" si="3"/>
-        <v>1.1406831119544592</v>
-      </c>
-    </row>
-    <row r="201" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.69894798526621282</v>
+      </c>
+    </row>
+    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F201">
         <v>189</v>
       </c>
       <c r="G201">
-        <f t="shared" si="3"/>
-        <v>1.1336242884250474</v>
-      </c>
-    </row>
-    <row r="202" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.69462272575064188</v>
+      </c>
+    </row>
+    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F202">
         <v>190</v>
       </c>
       <c r="G202">
-        <f t="shared" si="3"/>
-        <v>1.1265654648956356</v>
-      </c>
-    </row>
-    <row r="203" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.69029746623507093</v>
+      </c>
+    </row>
+    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F203">
         <v>191</v>
       </c>
       <c r="G203">
-        <f t="shared" si="3"/>
-        <v>1.1195066413662238</v>
-      </c>
-    </row>
-    <row r="204" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.68597220671949999</v>
+      </c>
+    </row>
+    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F204">
         <v>192</v>
       </c>
       <c r="G204">
-        <f t="shared" si="3"/>
-        <v>1.112447817836812</v>
-      </c>
-    </row>
-    <row r="205" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.68164694720392904</v>
+      </c>
+    </row>
+    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F205">
         <v>193</v>
       </c>
       <c r="G205">
-        <f t="shared" si="3"/>
-        <v>1.1053889943074002</v>
-      </c>
-    </row>
-    <row r="206" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.6773216876883581</v>
+      </c>
+    </row>
+    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F206">
         <v>194</v>
       </c>
       <c r="G206">
-        <f t="shared" ref="G206:G262" si="4">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
-        <v>1.0983301707779884</v>
-      </c>
-    </row>
-    <row r="207" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G206:G262" si="5">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
+        <v>0.67299642817278715</v>
+      </c>
+    </row>
+    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F207">
         <v>195</v>
       </c>
       <c r="G207">
-        <f t="shared" si="4"/>
-        <v>1.0912713472485769</v>
-      </c>
-    </row>
-    <row r="208" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.66867116865721632</v>
+      </c>
+    </row>
+    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F208">
         <v>196</v>
       </c>
       <c r="G208">
-        <f t="shared" si="4"/>
-        <v>1.0842125237191651</v>
-      </c>
-    </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.66434590914164537</v>
+      </c>
+    </row>
+    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F209">
         <v>197</v>
       </c>
       <c r="G209">
-        <f t="shared" si="4"/>
-        <v>1.0771537001897533</v>
-      </c>
-    </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.66002064962607443</v>
+      </c>
+    </row>
+    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F210">
         <v>198</v>
       </c>
       <c r="G210">
-        <f t="shared" si="4"/>
-        <v>1.0700948766603415</v>
-      </c>
-    </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.65569539011050348</v>
+      </c>
+    </row>
+    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F211">
         <v>199</v>
       </c>
       <c r="G211">
-        <f t="shared" si="4"/>
-        <v>1.0630360531309297</v>
-      </c>
-    </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.65137013059493254</v>
+      </c>
+    </row>
+    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F212">
         <v>200</v>
       </c>
       <c r="G212">
-        <f t="shared" si="4"/>
-        <v>1.055977229601518</v>
-      </c>
-    </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.64704487107936159</v>
+      </c>
+    </row>
+    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F213">
         <v>201</v>
       </c>
       <c r="G213">
-        <f t="shared" si="4"/>
-        <v>1.0489184060721062</v>
-      </c>
-    </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.64271961156379065</v>
+      </c>
+    </row>
+    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F214">
         <v>202</v>
       </c>
       <c r="G214">
-        <f t="shared" si="4"/>
-        <v>1.0418595825426944</v>
-      </c>
-    </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.6383943520482197</v>
+      </c>
+    </row>
+    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F215">
         <v>203</v>
       </c>
       <c r="G215">
-        <f t="shared" si="4"/>
-        <v>1.0348007590132826</v>
-      </c>
-    </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.63406909253264876</v>
+      </c>
+    </row>
+    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F216">
         <v>204</v>
       </c>
       <c r="G216">
-        <f t="shared" si="4"/>
-        <v>1.0277419354838708</v>
-      </c>
-    </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.62974383301707781</v>
+      </c>
+    </row>
+    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F217">
         <v>205</v>
       </c>
       <c r="G217">
-        <f t="shared" si="4"/>
-        <v>1.020683111954459</v>
-      </c>
-    </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.62541857350150687</v>
+      </c>
+    </row>
+    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F218">
         <v>206</v>
       </c>
       <c r="G218">
-        <f t="shared" si="4"/>
-        <v>1.0136242884250473</v>
-      </c>
-    </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.62109331398593604</v>
+      </c>
+    </row>
+    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F219">
         <v>207</v>
       </c>
       <c r="G219">
-        <f t="shared" si="4"/>
-        <v>1.0065654648956357</v>
-      </c>
-    </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.61676805447036509</v>
+      </c>
+    </row>
+    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F220">
         <v>208</v>
       </c>
       <c r="G220">
-        <f t="shared" si="4"/>
-        <v>0.99950664136622391</v>
-      </c>
-    </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.61244279495479415</v>
+      </c>
+    </row>
+    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F221">
         <v>209</v>
       </c>
       <c r="G221">
-        <f t="shared" si="4"/>
-        <v>0.99244781783681213</v>
-      </c>
-    </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.6081175354392232</v>
+      </c>
+    </row>
+    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F222">
         <v>210</v>
       </c>
       <c r="G222">
-        <f t="shared" si="4"/>
-        <v>0.98538899430740035</v>
-      </c>
-    </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.60379227592365226</v>
+      </c>
+    </row>
+    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F223">
         <v>211</v>
       </c>
       <c r="G223">
-        <f t="shared" si="4"/>
-        <v>0.97833017077798856</v>
-      </c>
-    </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.59946701640808131</v>
+      </c>
+    </row>
+    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F224">
         <v>212</v>
       </c>
       <c r="G224">
-        <f t="shared" si="4"/>
-        <v>0.97127134724857678</v>
-      </c>
-    </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.59514175689251037</v>
+      </c>
+    </row>
+    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F225">
         <v>213</v>
       </c>
       <c r="G225">
-        <f t="shared" si="4"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F226">
         <v>214</v>
       </c>
       <c r="G226">
-        <f t="shared" si="4"/>
-        <v>0.94451612903225812</v>
-      </c>
-    </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.57874762808349145</v>
+      </c>
+    </row>
+    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F227">
         <v>215</v>
       </c>
       <c r="G227">
-        <f t="shared" si="4"/>
-        <v>0.92903225806451628</v>
-      </c>
-    </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.56925996204933593</v>
+      </c>
+    </row>
+    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F228">
         <v>216</v>
       </c>
       <c r="G228">
-        <f t="shared" si="4"/>
-        <v>0.91354838709677422</v>
-      </c>
-    </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.5597722960151803</v>
+      </c>
+    </row>
+    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F229">
         <v>217</v>
       </c>
       <c r="G229">
-        <f t="shared" si="4"/>
-        <v>0.89806451612903238</v>
-      </c>
-    </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.55028462998102468</v>
+      </c>
+    </row>
+    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F230">
         <v>218</v>
       </c>
       <c r="G230">
-        <f t="shared" si="4"/>
-        <v>0.88258064516129031</v>
-      </c>
-    </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.54079696394686905</v>
+      </c>
+    </row>
+    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F231">
         <v>219</v>
       </c>
       <c r="G231">
-        <f t="shared" si="4"/>
-        <v>0.86709677419354847</v>
-      </c>
-    </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.53130929791271342</v>
+      </c>
+    </row>
+    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F232">
         <v>220</v>
       </c>
       <c r="G232">
-        <f t="shared" si="4"/>
-        <v>0.85161290322580641</v>
-      </c>
-    </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.5218216318785579</v>
+      </c>
+    </row>
+    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F233">
         <v>221</v>
       </c>
       <c r="G233">
-        <f t="shared" si="4"/>
-        <v>0.83612903225806456</v>
-      </c>
-    </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.51233396584440227</v>
+      </c>
+    </row>
+    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F234">
         <v>222</v>
       </c>
       <c r="G234">
-        <f t="shared" si="4"/>
-        <v>0.82064516129032272</v>
-      </c>
-    </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.50284629981024676</v>
+      </c>
+    </row>
+    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F235">
         <v>223</v>
       </c>
       <c r="G235">
-        <f t="shared" si="4"/>
-        <v>0.80516129032258066</v>
-      </c>
-    </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.49335863377609113</v>
+      </c>
+    </row>
+    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F236">
         <v>224</v>
       </c>
       <c r="G236">
-        <f t="shared" si="4"/>
-        <v>0.78967741935483882</v>
-      </c>
-    </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F237">
         <v>225</v>
       </c>
       <c r="G237">
-        <f t="shared" si="4"/>
-        <v>0.77419354838709697</v>
-      </c>
-    </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.47438330170777987</v>
+      </c>
+    </row>
+    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F238">
         <v>226</v>
       </c>
       <c r="G238">
-        <f t="shared" si="4"/>
-        <v>0.75870967741935491</v>
-      </c>
-    </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.46489563567362424</v>
+      </c>
+    </row>
+    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F239">
         <v>227</v>
       </c>
       <c r="G239">
-        <f t="shared" si="4"/>
-        <v>0.74322580645161307</v>
-      </c>
-    </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.45540796963946861</v>
+      </c>
+    </row>
+    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F240">
         <v>228</v>
       </c>
       <c r="G240">
-        <f t="shared" si="4"/>
-        <v>0.72774193548387101</v>
-      </c>
-    </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.44592030360531298</v>
+      </c>
+    </row>
+    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F241">
         <v>229</v>
       </c>
       <c r="G241">
-        <f t="shared" si="4"/>
-        <v>0.71225806451612916</v>
-      </c>
-    </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.43643263757115758</v>
+      </c>
+    </row>
+    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F242">
         <v>230</v>
       </c>
       <c r="G242">
-        <f t="shared" si="4"/>
-        <v>0.6967741935483871</v>
-      </c>
-    </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.42694497153700173</v>
+      </c>
+    </row>
+    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F243">
         <v>231</v>
       </c>
       <c r="G243">
-        <f t="shared" si="4"/>
-        <v>0.68129032258064526</v>
-      </c>
-    </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.41745730550284632</v>
+      </c>
+    </row>
+    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F244">
         <v>232</v>
       </c>
       <c r="G244">
-        <f t="shared" si="4"/>
-        <v>0.66580645161290342</v>
-      </c>
-    </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.40796963946869069</v>
+      </c>
+    </row>
+    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F245">
         <v>233</v>
       </c>
       <c r="G245">
-        <f t="shared" si="4"/>
-        <v>0.65032258064516135</v>
-      </c>
-    </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.39848197343453506</v>
+      </c>
+    </row>
+    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F246">
         <v>234</v>
       </c>
       <c r="G246">
-        <f t="shared" si="4"/>
-        <v>0.63483870967741951</v>
-      </c>
-    </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.38899430740037944</v>
+      </c>
+    </row>
+    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F247">
         <v>235</v>
       </c>
       <c r="G247">
-        <f t="shared" si="4"/>
-        <v>0.61935483870967767</v>
-      </c>
-    </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.37950664136622381</v>
+      </c>
+    </row>
+    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F248">
         <v>236</v>
       </c>
       <c r="G248">
-        <f t="shared" si="4"/>
-        <v>0.6038709677419356</v>
-      </c>
-    </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.37001897533206818</v>
+      </c>
+    </row>
+    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F249">
         <v>237</v>
       </c>
       <c r="G249">
-        <f t="shared" si="4"/>
-        <v>0.58838709677419376</v>
-      </c>
-    </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.36053130929791255</v>
+      </c>
+    </row>
+    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F250">
         <v>238</v>
       </c>
       <c r="G250">
-        <f t="shared" si="4"/>
-        <v>0.55741935483870986</v>
-      </c>
-    </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.34155597722960152</v>
+      </c>
+    </row>
+    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F251">
         <v>239</v>
       </c>
       <c r="G251">
-        <f t="shared" si="4"/>
-        <v>0.51096774193548411</v>
-      </c>
-    </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.31309297912713463</v>
+      </c>
+    </row>
+    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F252">
         <v>240</v>
       </c>
       <c r="G252">
-        <f t="shared" si="4"/>
-        <v>0.46451612903225836</v>
-      </c>
-    </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.28462998102466797</v>
+      </c>
+    </row>
+    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F253">
         <v>241</v>
       </c>
       <c r="G253">
-        <f t="shared" si="4"/>
-        <v>0.41806451612903217</v>
-      </c>
-    </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.25616698292220108</v>
+      </c>
+    </row>
+    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F254">
         <v>242</v>
       </c>
       <c r="G254">
-        <f t="shared" si="4"/>
-        <v>0.37161290322580642</v>
-      </c>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.2277039848197342</v>
+      </c>
+    </row>
+    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F255">
         <v>243</v>
       </c>
       <c r="G255">
-        <f t="shared" si="4"/>
-        <v>0.32516129032258068</v>
-      </c>
-    </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.19924098671726753</v>
+      </c>
+    </row>
+    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F256">
         <v>244</v>
       </c>
       <c r="G256">
-        <f t="shared" si="4"/>
-        <v>0.27870967741935493</v>
-      </c>
-    </row>
-    <row r="257" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.17077798861480065</v>
+      </c>
+    </row>
+    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F257">
         <v>245</v>
       </c>
       <c r="G257">
-        <f t="shared" si="4"/>
-        <v>0.23225806451612918</v>
-      </c>
-    </row>
-    <row r="258" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.14231499051233398</v>
+      </c>
+    </row>
+    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F258">
         <v>246</v>
       </c>
       <c r="G258">
-        <f t="shared" si="4"/>
-        <v>0.18580645161290343</v>
-      </c>
-    </row>
-    <row r="259" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.1138519924098671</v>
+      </c>
+    </row>
+    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F259">
         <v>247</v>
       </c>
       <c r="G259">
-        <f t="shared" si="4"/>
-        <v>0.13935483870967769</v>
-      </c>
-    </row>
-    <row r="260" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>8.5388994307400434E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F260">
         <v>248</v>
       </c>
       <c r="G260">
-        <f t="shared" si="4"/>
-        <v>9.2903225806451495E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>5.6925996204933549E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F261">
         <v>249</v>
       </c>
       <c r="G261">
-        <f t="shared" si="4"/>
-        <v>4.6451612903225747E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>2.8462998102466663E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F262">
         <v>250</v>
       </c>
       <c r="G262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5454,7 +5517,7 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5466,7 +5529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Non-linear charging.xlsx
+++ b/Data/Non-linear charging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C2B87FA-E106-4641-A24A-9356F10277C5}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{BB30F489-32AE-4F0E-81A7-2DBF018BE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE8A250-16F1-4E85-AA17-3172D6507C9D}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{44EEA160-5593-496E-A10D-89DFF1B9857E}"/>
   </bookViews>
   <sheets>
     <sheet name="fleet (2)" sheetId="3" r:id="rId1"/>
@@ -174,12 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,751 +1034,751 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="250"/>
                 <c:pt idx="0">
-                  <c:v>1.5077715146779775</c:v>
+                  <c:v>1.3402413463804246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5034462551624066</c:v>
+                  <c:v>1.3363966712554727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4991209956468357</c:v>
+                  <c:v>1.3325519961305206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4947957361312647</c:v>
+                  <c:v>1.3287073210055687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4904704766156938</c:v>
+                  <c:v>1.3248626458806168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4861452171001228</c:v>
+                  <c:v>1.3210179707556648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4818199575845519</c:v>
+                  <c:v>1.3171732956307129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4774946980689809</c:v>
+                  <c:v>1.313328620505761</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.47316943855341</c:v>
+                  <c:v>1.3094839453808089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.468844179037839</c:v>
+                  <c:v>1.305639270255857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4645189195222683</c:v>
+                  <c:v>1.3017945951309051</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4601936600066974</c:v>
+                  <c:v>1.2979499200059532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4558684004911264</c:v>
+                  <c:v>1.2941052448810013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4515431409755555</c:v>
+                  <c:v>1.2902605697560494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4472178814599845</c:v>
+                  <c:v>1.2864158946310973</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4428926219444136</c:v>
+                  <c:v>1.2825712195061454</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4385673624288426</c:v>
+                  <c:v>1.2787265443811935</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4342421029132717</c:v>
+                  <c:v>1.2748818692562416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4299168433977008</c:v>
+                  <c:v>1.2710371941312897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4255915838821298</c:v>
+                  <c:v>1.2671925190063376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4212663243665589</c:v>
+                  <c:v>1.2633478438813857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4169410648509879</c:v>
+                  <c:v>1.2595031687564338</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.412615805335417</c:v>
+                  <c:v>1.2556584936314819</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.408290545819846</c:v>
+                  <c:v>1.25181381850653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4039652863042751</c:v>
+                  <c:v>1.247969143381578</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3996400267887041</c:v>
+                  <c:v>1.2441244682566259</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3953147672731332</c:v>
+                  <c:v>1.240279793131674</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3909895077575622</c:v>
+                  <c:v>1.2364351180067221</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3866642482419913</c:v>
+                  <c:v>1.2325904428817702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3823389887264204</c:v>
+                  <c:v>1.2287457677568183</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3780137292108496</c:v>
+                  <c:v>1.2249010926318662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3736884696952787</c:v>
+                  <c:v>1.2210564175069143</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3693632101797077</c:v>
+                  <c:v>1.2172117423819624</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3650379506641368</c:v>
+                  <c:v>1.2133670672570105</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3607126911485659</c:v>
+                  <c:v>1.2095223921320586</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3563874316329949</c:v>
+                  <c:v>1.2056777170071067</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.352062172117424</c:v>
+                  <c:v>1.2018330418821546</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.347736912601853</c:v>
+                  <c:v>1.1979883667572027</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3434116530862821</c:v>
+                  <c:v>1.1941436916322508</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3390863935707111</c:v>
+                  <c:v>1.1902990165072989</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3347611340551402</c:v>
+                  <c:v>1.186454341382347</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3304358745395692</c:v>
+                  <c:v>1.1826096662573948</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3261106150239983</c:v>
+                  <c:v>1.1787649911324429</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3217853555084274</c:v>
+                  <c:v>1.174920316007491</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3174600959928564</c:v>
+                  <c:v>1.1710756408825391</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3131348364772855</c:v>
+                  <c:v>1.1672309657575872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3088095769617145</c:v>
+                  <c:v>1.1633862906326353</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3044843174461436</c:v>
+                  <c:v>1.1595416155076834</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3001590579305726</c:v>
+                  <c:v>1.1556969403827313</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2958337984150017</c:v>
+                  <c:v>1.1518522652577794</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2915085388994307</c:v>
+                  <c:v>1.1480075901328275</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2871832793838598</c:v>
+                  <c:v>1.1441629150078756</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2828580198682888</c:v>
+                  <c:v>1.1403182398829237</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2785327603527181</c:v>
+                  <c:v>1.1364735647579716</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2742075008371472</c:v>
+                  <c:v>1.1326288896330197</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2698822413215762</c:v>
+                  <c:v>1.1287842145080678</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2655569818060053</c:v>
+                  <c:v>1.1249395393831159</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2612317222904343</c:v>
+                  <c:v>1.121094864258164</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2569064627748634</c:v>
+                  <c:v>1.1172501891332121</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2525812032592925</c:v>
+                  <c:v>1.1134055140082599</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2482559437437215</c:v>
+                  <c:v>1.109560838883308</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2439306842281506</c:v>
+                  <c:v>1.1057161637583561</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2396054247125796</c:v>
+                  <c:v>1.1018714886334042</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2352801651970087</c:v>
+                  <c:v>1.0980268135084523</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2309549056814377</c:v>
+                  <c:v>1.0941821383835002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2266296461658668</c:v>
+                  <c:v>1.0903374632585483</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2223043866502958</c:v>
+                  <c:v>1.0864927881335964</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2179791271347249</c:v>
+                  <c:v>1.0826481130086445</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2136538676191539</c:v>
+                  <c:v>1.0788034378836926</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.209328608103583</c:v>
+                  <c:v>1.0749587627587407</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2050033485880121</c:v>
+                  <c:v>1.0711140876337888</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2006780890724413</c:v>
+                  <c:v>1.0672694125088367</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1963528295568704</c:v>
+                  <c:v>1.0634247373838848</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1920275700412994</c:v>
+                  <c:v>1.0595800622589329</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1877023105257285</c:v>
+                  <c:v>1.055735387133981</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1833770510101576</c:v>
+                  <c:v>1.0518907120090288</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1790517914945866</c:v>
+                  <c:v>1.0480460368840769</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1747265319790157</c:v>
+                  <c:v>1.044201361759125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1704012724634447</c:v>
+                  <c:v>1.0403566866341731</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1660760129478738</c:v>
+                  <c:v>1.0365120115092212</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1617507534323028</c:v>
+                  <c:v>1.0326673363842693</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1574254939167319</c:v>
+                  <c:v>1.0288226612593174</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1531002344011609</c:v>
+                  <c:v>1.0249779861343653</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.14877497488559</c:v>
+                  <c:v>1.0211333110094134</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.144449715370019</c:v>
+                  <c:v>1.0172886358844615</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.1401244558544481</c:v>
+                  <c:v>1.0134439607595096</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1357991963388772</c:v>
+                  <c:v>1.0095992856345575</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1314739368233062</c:v>
+                  <c:v>1.0057546105096056</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1271486773077353</c:v>
+                  <c:v>1.0019099353846537</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1228234177921643</c:v>
+                  <c:v>0.99806526025970177</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.1184981582765934</c:v>
+                  <c:v>0.99422058513474987</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1141728987610224</c:v>
+                  <c:v>0.99037591000979797</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.1098476392454515</c:v>
+                  <c:v>0.98653123488484595</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1055223797298805</c:v>
+                  <c:v>0.98268655975989394</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1011971202143096</c:v>
+                  <c:v>0.97884188463494204</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.0968718606987387</c:v>
+                  <c:v>0.97499720950999014</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.0925466011831677</c:v>
+                  <c:v>0.97115253438503824</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.088221341667597</c:v>
+                  <c:v>0.96730785926008622</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.083896082152026</c:v>
+                  <c:v>0.96346318413513432</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0795708226364551</c:v>
+                  <c:v>0.95961850901018231</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.0752455631208842</c:v>
+                  <c:v>0.95577383388523041</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.0709203036053132</c:v>
+                  <c:v>0.9519291587602785</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.0665950440897423</c:v>
+                  <c:v>0.9480844836353266</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.0622697845741713</c:v>
+                  <c:v>0.94423980851037459</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.0579445250586004</c:v>
+                  <c:v>0.94039513338542258</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.0536192655430294</c:v>
+                  <c:v>0.93655045826047068</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.0492940060274585</c:v>
+                  <c:v>0.93270578313551877</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.0449687465118875</c:v>
+                  <c:v>0.92886110801056687</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.0406434869963166</c:v>
+                  <c:v>0.92501643288561497</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.0363182274807456</c:v>
+                  <c:v>0.92117175776066296</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.0319929679651747</c:v>
+                  <c:v>0.91732708263571094</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.0276677084496038</c:v>
+                  <c:v>0.91348240751075904</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.0233424489340328</c:v>
+                  <c:v>0.90963773238580714</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.0190171894184621</c:v>
+                  <c:v>0.90579305726085524</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.0146919299028911</c:v>
+                  <c:v>0.90194838213590323</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.0103666703873202</c:v>
+                  <c:v>0.89810370701095132</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0060414108717493</c:v>
+                  <c:v>0.89425903188599931</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.0017161513561783</c:v>
+                  <c:v>0.89041435676104741</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.99739089184060725</c:v>
+                  <c:v>0.88656968163609551</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.99306563232503631</c:v>
+                  <c:v>0.88272500651114361</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.98874037280946536</c:v>
+                  <c:v>0.87888033138619159</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.98441511329389453</c:v>
+                  <c:v>0.87503565626123958</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.98008985377832358</c:v>
+                  <c:v>0.87119098113628768</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.97576459426275264</c:v>
+                  <c:v>0.86734630601133578</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.97143933474718169</c:v>
+                  <c:v>0.86350163088638388</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.96711407523161075</c:v>
+                  <c:v>0.85965695576143186</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.9627888157160398</c:v>
+                  <c:v>0.85581228063647996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.95846355620046886</c:v>
+                  <c:v>0.85196760551152795</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.95413829668489791</c:v>
+                  <c:v>0.84812293038657605</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.94981303716932697</c:v>
+                  <c:v>0.84427825526162414</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.94548777765375602</c:v>
+                  <c:v>0.84043358013667213</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.94116251813818519</c:v>
+                  <c:v>0.83658890501172023</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.93683725862261424</c:v>
+                  <c:v>0.83274422988676833</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.9325119991070433</c:v>
+                  <c:v>0.82889955476181632</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.92818673959147235</c:v>
+                  <c:v>0.82505487963686441</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.92386148007590141</c:v>
+                  <c:v>0.82121020451191251</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.91953622056033046</c:v>
+                  <c:v>0.8173655293869605</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.91521096104475952</c:v>
+                  <c:v>0.8135208542620086</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.91088570152918857</c:v>
+                  <c:v>0.8096761791370567</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.90656044201361763</c:v>
+                  <c:v>0.80583150401210468</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.90223518249804668</c:v>
+                  <c:v>0.80198682888715278</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.89790992298247574</c:v>
+                  <c:v>0.79814215376220088</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.8935846634669049</c:v>
+                  <c:v>0.79429747863724887</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.88925940395133396</c:v>
+                  <c:v>0.79045280351229696</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.88493414443576301</c:v>
+                  <c:v>0.78660812838734495</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.88060888492019207</c:v>
+                  <c:v>0.78276345326239305</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.87628362540462112</c:v>
+                  <c:v>0.77891877813744115</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.87195836588905018</c:v>
+                  <c:v>0.77507410301248914</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.86763310637347923</c:v>
+                  <c:v>0.77122942788753723</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.86330784685790829</c:v>
+                  <c:v>0.76738475276258533</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.85898258734233734</c:v>
+                  <c:v>0.76354007763763332</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.8546573278267664</c:v>
+                  <c:v>0.75969540251268142</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.85033206831119557</c:v>
+                  <c:v>0.75585072738772952</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.84600680879562462</c:v>
+                  <c:v>0.7520060522627775</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.84168154928005368</c:v>
+                  <c:v>0.7481613771378256</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.83735628976448273</c:v>
+                  <c:v>0.7443167020128737</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.83303103024891179</c:v>
+                  <c:v>0.74047202688792169</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.82870577073334084</c:v>
+                  <c:v>0.73662735176296978</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.8243805112177699</c:v>
+                  <c:v>0.73278267663801788</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.82005525170219895</c:v>
+                  <c:v>0.72893800151306587</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.81572999218662801</c:v>
+                  <c:v>0.72509332638811397</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.81140473267105706</c:v>
+                  <c:v>0.72124865126316196</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.80707947315548612</c:v>
+                  <c:v>0.71740397613821005</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.80275421363991528</c:v>
+                  <c:v>0.71355930101325815</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.79842895412434434</c:v>
+                  <c:v>0.70971462588830614</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.79410369460877339</c:v>
+                  <c:v>0.70586995076335424</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.78977843509320245</c:v>
+                  <c:v>0.70202527563840234</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.7854531755776315</c:v>
+                  <c:v>0.69818060051345032</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.78112791606206056</c:v>
+                  <c:v>0.69433592538849842</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.77680265654648961</c:v>
+                  <c:v>0.69049125026354652</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.77247739703091867</c:v>
+                  <c:v>0.68664657513859451</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.76815213751534772</c:v>
+                  <c:v>0.6828019000136426</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.76382687799977678</c:v>
+                  <c:v>0.6789572248886907</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.75950161848420594</c:v>
+                  <c:v>0.67511254976373869</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.755176358968635</c:v>
+                  <c:v>0.67126787463878679</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.75085109945306405</c:v>
+                  <c:v>0.66742319951383478</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.74652583993749311</c:v>
+                  <c:v>0.66357852438888287</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.74220058042192216</c:v>
+                  <c:v>0.65973384926393097</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.73787532090635122</c:v>
+                  <c:v>0.65588917413897896</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.73355006139078027</c:v>
+                  <c:v>0.65204449901402706</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.72922480187520933</c:v>
+                  <c:v>0.64819982388907516</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.72489954235963838</c:v>
+                  <c:v>0.64435514876412314</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.72057428284406744</c:v>
+                  <c:v>0.64051047363917124</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.71624902332849649</c:v>
+                  <c:v>0.63666579851421934</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.71192376381292566</c:v>
+                  <c:v>0.63282112338926733</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.70759850429735471</c:v>
+                  <c:v>0.62897644826431542</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.70327324478178377</c:v>
+                  <c:v>0.62513177313936352</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.69894798526621282</c:v>
+                  <c:v>0.62128709801441151</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.69462272575064188</c:v>
+                  <c:v>0.61744242288945961</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.69029746623507093</c:v>
+                  <c:v>0.6135977477645076</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.68597220671949999</c:v>
+                  <c:v>0.60975307263955569</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.68164694720392904</c:v>
+                  <c:v>0.60590839751460379</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.6773216876883581</c:v>
+                  <c:v>0.60206372238965178</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.67299642817278715</c:v>
+                  <c:v>0.59821904726469988</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.66867116865721632</c:v>
+                  <c:v>0.59437437213974798</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.66434590914164537</c:v>
+                  <c:v>0.59052969701479596</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.66002064962607443</c:v>
+                  <c:v>0.58668502188984406</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.65569539011050348</c:v>
+                  <c:v>0.58284034676489216</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.65137013059493254</c:v>
+                  <c:v>0.57899567163994015</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.64704487107936159</c:v>
+                  <c:v>0.57515099651498824</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.64271961156379065</c:v>
+                  <c:v>0.57130632139003634</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.6383943520482197</c:v>
+                  <c:v>0.56746164626508433</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.63406909253264876</c:v>
+                  <c:v>0.56361697114013243</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.62974383301707781</c:v>
+                  <c:v>0.55977229601518053</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.62541857350150687</c:v>
+                  <c:v>0.55592762089022851</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.62109331398593604</c:v>
+                  <c:v>0.55208294576527661</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.61676805447036509</c:v>
+                  <c:v>0.5482382706403246</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.61244279495479415</c:v>
+                  <c:v>0.5443935955153727</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.6081175354392232</c:v>
+                  <c:v>0.5405489203904208</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.60379227592365226</c:v>
+                  <c:v>0.53670424526546878</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.59946701640808131</c:v>
+                  <c:v>0.53285957014051688</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.59514175689251037</c:v>
+                  <c:v>0.52901489501556498</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.52287581699346419</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.57874762808349145</c:v>
+                  <c:v>0.51444233607421475</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.56925996204933593</c:v>
+                  <c:v>0.50600885515496541</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.5597722960151803</c:v>
+                  <c:v>0.49757537423571596</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.55028462998102468</c:v>
+                  <c:v>0.48914189331646651</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.54079696394686905</c:v>
+                  <c:v>0.48070841239721707</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.53130929791271342</c:v>
+                  <c:v>0.47227493147796773</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.5218216318785579</c:v>
+                  <c:v>0.46384145055871828</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.51233396584440227</c:v>
+                  <c:v>0.45540796963946883</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.50284629981024676</c:v>
+                  <c:v>0.44697448872021939</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.49335863377609113</c:v>
+                  <c:v>0.43854100780096994</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.4838709677419355</c:v>
+                  <c:v>0.4301075268817206</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.47438330170777987</c:v>
+                  <c:v>0.42167404596247116</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.46489563567362424</c:v>
+                  <c:v>0.41324056504322171</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.45540796963946861</c:v>
+                  <c:v>0.40480708412397237</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.44592030360531298</c:v>
+                  <c:v>0.39637360320472292</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.43643263757115758</c:v>
+                  <c:v>0.38794012228547348</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.42694497153700173</c:v>
+                  <c:v>0.37950664136622403</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.41745730550284632</c:v>
+                  <c:v>0.37107316044697458</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.40796963946869069</c:v>
+                  <c:v>0.36263967952772524</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.39848197343453506</c:v>
+                  <c:v>0.3542061986084758</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.38899430740037944</c:v>
+                  <c:v>0.34577271768922635</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.37950664136622381</c:v>
+                  <c:v>0.33733923676997701</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.37001897533206818</c:v>
+                  <c:v>0.32890575585072757</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.36053130929791255</c:v>
+                  <c:v>0.32047227493147812</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.34155597722960152</c:v>
+                  <c:v>0.30360531309297922</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.31309297912713463</c:v>
+                  <c:v>0.27830487033523088</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.28462998102466797</c:v>
+                  <c:v>0.25300442757748276</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.25616698292220108</c:v>
+                  <c:v>0.22770398481973442</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.2277039848197342</c:v>
+                  <c:v>0.20240354206198607</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.19924098671726753</c:v>
+                  <c:v>0.17710309930423795</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.17077798861480065</c:v>
+                  <c:v>0.15180265654648961</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.14231499051233398</c:v>
+                  <c:v>0.12650221378874127</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.1138519924098671</c:v>
+                  <c:v>0.10120177103099315</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.5388994307400434E-2</c:v>
+                  <c:v>7.5901328273244806E-2</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>5.6925996204933549E-2</c:v>
+                  <c:v>5.0600885515496685E-2</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.8462998102466663E-2</c:v>
+                  <c:v>2.5300442757748343E-2</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>0</c:v>
@@ -2557,6 +2556,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{97D66D9D-9D1B-46FA-9958-2E22C6CAA3D3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
@@ -2896,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDAD5C0-1AED-4C35-8640-9E4C67D3B1FC}">
   <dimension ref="A1:L262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="122" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,11 +3094,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J6" t="s">
@@ -3136,11 +3138,11 @@
       </c>
       <c r="I8">
         <f>G8/L9</f>
-        <v>0.91911764705882359</v>
+        <v>0.81699346405228757</v>
       </c>
       <c r="J8">
         <f>(G8-G7)/(I8-I7)</f>
-        <v>231.2</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -3172,18 +3174,18 @@
       </c>
       <c r="I9">
         <f>I8*I4/I3</f>
-        <v>1.1563092979127136</v>
+        <v>1.0278304870335231</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J10" si="1">(G9-G8)/(I9-I8)</f>
-        <v>105.39999999999995</v>
+        <v>118.57499999999999</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L9">
         <f>L8*K9/K8</f>
-        <v>231.2</v>
+        <v>260.10000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3208,11 +3210,11 @@
       </c>
       <c r="I10">
         <f>I8*I5/I3</f>
-        <v>1.5120967741935485</v>
+        <v>1.3440860215053765</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>35.13333333333334</v>
+        <v>39.524999999999984</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3234,14 +3236,14 @@
       </c>
       <c r="G13">
         <f>$I$10-((MIN(F13,$G$8)-$G$7)/$I$15+IF(F13&gt;=$G$8,1,0)*(MIN(F13,$G$9)-$G$8)/$I$14+IF(F13&gt;=$G$9,1,0)*(MIN(F13,$G$10)-$G$9)/$I$13)</f>
-        <v>1.5077715146779775</v>
+        <v>1.3402413463804246</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I13">
         <f>(G10-G9)/(I10-I9)</f>
-        <v>35.13333333333334</v>
+        <v>39.524999999999984</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,14 +3252,14 @@
       </c>
       <c r="G14">
         <f t="shared" ref="G14:G77" si="2">$I$10-((MIN(F14,$G$8)-$G$7)/$I$15+IF(F14&gt;=$G$8,1,0)*(MIN(F14,$G$9)-$G$8)/$I$14+IF(F14&gt;=$G$9,1,0)*(MIN(F14,$G$10)-$G$9)/$I$13)</f>
-        <v>1.5034462551624066</v>
+        <v>1.3363966712554727</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I14">
         <f>(G9-G8)/(I9-I8)</f>
-        <v>105.39999999999995</v>
+        <v>118.57499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3266,14 +3268,14 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>1.4991209956468357</v>
+        <v>1.3325519961305206</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I15">
         <f>(G8-G7)/(I8-I7)</f>
-        <v>231.2</v>
+        <v>260.10000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3282,7 +3284,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1.4947957361312647</v>
+        <v>1.3287073210055687</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
@@ -3291,7 +3293,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>1.4904704766156938</v>
+        <v>1.3248626458806168</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.25">
@@ -3300,7 +3302,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.4861452171001228</v>
+        <v>1.3210179707556648</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3311,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1.4818199575845519</v>
+        <v>1.3171732956307129</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -3318,7 +3320,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>1.4774946980689809</v>
+        <v>1.313328620505761</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3329,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>1.47316943855341</v>
+        <v>1.3094839453808089</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
@@ -3336,7 +3338,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1.468844179037839</v>
+        <v>1.305639270255857</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
@@ -3345,7 +3347,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>1.4645189195222683</v>
+        <v>1.3017945951309051</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
@@ -3354,7 +3356,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1.4601936600066974</v>
+        <v>1.2979499200059532</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -3363,7 +3365,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1.4558684004911264</v>
+        <v>1.2941052448810013</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
@@ -3372,7 +3374,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>1.4515431409755555</v>
+        <v>1.2902605697560494</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
@@ -3381,7 +3383,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.4472178814599845</v>
+        <v>1.2864158946310973</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
@@ -3390,7 +3392,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>1.4428926219444136</v>
+        <v>1.2825712195061454</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
@@ -3399,7 +3401,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>1.4385673624288426</v>
+        <v>1.2787265443811935</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
@@ -3408,7 +3410,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>1.4342421029132717</v>
+        <v>1.2748818692562416</v>
       </c>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
@@ -3417,7 +3419,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1.4299168433977008</v>
+        <v>1.2710371941312897</v>
       </c>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
@@ -3426,7 +3428,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>1.4255915838821298</v>
+        <v>1.2671925190063376</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -3435,7 +3437,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>1.4212663243665589</v>
+        <v>1.2633478438813857</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
@@ -3444,7 +3446,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>1.4169410648509879</v>
+        <v>1.2595031687564338</v>
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
@@ -3453,7 +3455,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>1.412615805335417</v>
+        <v>1.2556584936314819</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.25">
@@ -3462,7 +3464,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>1.408290545819846</v>
+        <v>1.25181381850653</v>
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.25">
@@ -3471,7 +3473,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>1.4039652863042751</v>
+        <v>1.247969143381578</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -3480,7 +3482,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>1.3996400267887041</v>
+        <v>1.2441244682566259</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.25">
@@ -3489,7 +3491,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>1.3953147672731332</v>
+        <v>1.240279793131674</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.25">
@@ -3498,7 +3500,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>1.3909895077575622</v>
+        <v>1.2364351180067221</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.25">
@@ -3507,7 +3509,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>1.3866642482419913</v>
+        <v>1.2325904428817702</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.25">
@@ -3516,7 +3518,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>1.3823389887264204</v>
+        <v>1.2287457677568183</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.25">
@@ -3525,7 +3527,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>1.3780137292108496</v>
+        <v>1.2249010926318662</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
@@ -3534,7 +3536,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>1.3736884696952787</v>
+        <v>1.2210564175069143</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.25">
@@ -3543,7 +3545,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>1.3693632101797077</v>
+        <v>1.2172117423819624</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.25">
@@ -3552,7 +3554,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>1.3650379506641368</v>
+        <v>1.2133670672570105</v>
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.25">
@@ -3561,7 +3563,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>1.3607126911485659</v>
+        <v>1.2095223921320586</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.25">
@@ -3570,7 +3572,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>1.3563874316329949</v>
+        <v>1.2056777170071067</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.25">
@@ -3579,7 +3581,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>1.352062172117424</v>
+        <v>1.2018330418821546</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.25">
@@ -3588,7 +3590,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>1.347736912601853</v>
+        <v>1.1979883667572027</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.25">
@@ -3597,7 +3599,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>1.3434116530862821</v>
+        <v>1.1941436916322508</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.25">
@@ -3606,7 +3608,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>1.3390863935707111</v>
+        <v>1.1902990165072989</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.25">
@@ -3615,7 +3617,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1.3347611340551402</v>
+        <v>1.186454341382347</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.25">
@@ -3624,7 +3626,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>1.3304358745395692</v>
+        <v>1.1826096662573948</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.25">
@@ -3633,7 +3635,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>1.3261106150239983</v>
+        <v>1.1787649911324429</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.25">
@@ -3642,7 +3644,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>1.3217853555084274</v>
+        <v>1.174920316007491</v>
       </c>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.25">
@@ -3651,7 +3653,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>1.3174600959928564</v>
+        <v>1.1710756408825391</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
@@ -3660,7 +3662,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>1.3131348364772855</v>
+        <v>1.1672309657575872</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
@@ -3669,7 +3671,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>1.3088095769617145</v>
+        <v>1.1633862906326353</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
@@ -3678,7 +3680,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>1.3044843174461436</v>
+        <v>1.1595416155076834</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
@@ -3687,7 +3689,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>1.3001590579305726</v>
+        <v>1.1556969403827313</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
@@ -3696,7 +3698,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>1.2958337984150017</v>
+        <v>1.1518522652577794</v>
       </c>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.25">
@@ -3705,7 +3707,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>1.2915085388994307</v>
+        <v>1.1480075901328275</v>
       </c>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.25">
@@ -3714,7 +3716,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>1.2871832793838598</v>
+        <v>1.1441629150078756</v>
       </c>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.25">
@@ -3723,7 +3725,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
-        <v>1.2828580198682888</v>
+        <v>1.1403182398829237</v>
       </c>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.25">
@@ -3732,7 +3734,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>1.2785327603527181</v>
+        <v>1.1364735647579716</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.25">
@@ -3741,7 +3743,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="2"/>
-        <v>1.2742075008371472</v>
+        <v>1.1326288896330197</v>
       </c>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
@@ -3750,7 +3752,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="2"/>
-        <v>1.2698822413215762</v>
+        <v>1.1287842145080678</v>
       </c>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
@@ -3759,7 +3761,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>1.2655569818060053</v>
+        <v>1.1249395393831159</v>
       </c>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
@@ -3768,7 +3770,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>1.2612317222904343</v>
+        <v>1.121094864258164</v>
       </c>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
@@ -3777,7 +3779,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="2"/>
-        <v>1.2569064627748634</v>
+        <v>1.1172501891332121</v>
       </c>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
@@ -3786,7 +3788,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="2"/>
-        <v>1.2525812032592925</v>
+        <v>1.1134055140082599</v>
       </c>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
@@ -3795,7 +3797,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="2"/>
-        <v>1.2482559437437215</v>
+        <v>1.109560838883308</v>
       </c>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
@@ -3804,7 +3806,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
-        <v>1.2439306842281506</v>
+        <v>1.1057161637583561</v>
       </c>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
@@ -3813,7 +3815,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="2"/>
-        <v>1.2396054247125796</v>
+        <v>1.1018714886334042</v>
       </c>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
@@ -3822,7 +3824,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
-        <v>1.2352801651970087</v>
+        <v>1.0980268135084523</v>
       </c>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
@@ -3831,7 +3833,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="2"/>
-        <v>1.2309549056814377</v>
+        <v>1.0941821383835002</v>
       </c>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
@@ -3840,7 +3842,7 @@
       </c>
       <c r="G78">
         <f t="shared" ref="G78:G141" si="3">$I$10-((MIN(F78,$G$8)-$G$7)/$I$15+IF(F78&gt;=$G$8,1,0)*(MIN(F78,$G$9)-$G$8)/$I$14+IF(F78&gt;=$G$9,1,0)*(MIN(F78,$G$10)-$G$9)/$I$13)</f>
-        <v>1.2266296461658668</v>
+        <v>1.0903374632585483</v>
       </c>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
@@ -3849,7 +3851,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
-        <v>1.2223043866502958</v>
+        <v>1.0864927881335964</v>
       </c>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
@@ -3858,7 +3860,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="3"/>
-        <v>1.2179791271347249</v>
+        <v>1.0826481130086445</v>
       </c>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
@@ -3867,7 +3869,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="3"/>
-        <v>1.2136538676191539</v>
+        <v>1.0788034378836926</v>
       </c>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
@@ -3876,7 +3878,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="3"/>
-        <v>1.209328608103583</v>
+        <v>1.0749587627587407</v>
       </c>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
@@ -3885,7 +3887,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
-        <v>1.2050033485880121</v>
+        <v>1.0711140876337888</v>
       </c>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
@@ -3894,7 +3896,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="3"/>
-        <v>1.2006780890724413</v>
+        <v>1.0672694125088367</v>
       </c>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
@@ -3903,7 +3905,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="3"/>
-        <v>1.1963528295568704</v>
+        <v>1.0634247373838848</v>
       </c>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
@@ -3912,7 +3914,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="3"/>
-        <v>1.1920275700412994</v>
+        <v>1.0595800622589329</v>
       </c>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
@@ -3921,7 +3923,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="3"/>
-        <v>1.1877023105257285</v>
+        <v>1.055735387133981</v>
       </c>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
@@ -3930,7 +3932,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="3"/>
-        <v>1.1833770510101576</v>
+        <v>1.0518907120090288</v>
       </c>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
@@ -3939,7 +3941,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="3"/>
-        <v>1.1790517914945866</v>
+        <v>1.0480460368840769</v>
       </c>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
@@ -3948,7 +3950,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="3"/>
-        <v>1.1747265319790157</v>
+        <v>1.044201361759125</v>
       </c>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
@@ -3957,7 +3959,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="3"/>
-        <v>1.1704012724634447</v>
+        <v>1.0403566866341731</v>
       </c>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
@@ -3966,7 +3968,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="3"/>
-        <v>1.1660760129478738</v>
+        <v>1.0365120115092212</v>
       </c>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
@@ -3975,7 +3977,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="3"/>
-        <v>1.1617507534323028</v>
+        <v>1.0326673363842693</v>
       </c>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
@@ -3984,7 +3986,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="3"/>
-        <v>1.1574254939167319</v>
+        <v>1.0288226612593174</v>
       </c>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
@@ -3993,7 +3995,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="3"/>
-        <v>1.1531002344011609</v>
+        <v>1.0249779861343653</v>
       </c>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
@@ -4002,7 +4004,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>1.14877497488559</v>
+        <v>1.0211333110094134</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
@@ -4011,7 +4013,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="3"/>
-        <v>1.144449715370019</v>
+        <v>1.0172886358844615</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
@@ -4020,7 +4022,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="3"/>
-        <v>1.1401244558544481</v>
+        <v>1.0134439607595096</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
@@ -4029,7 +4031,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="3"/>
-        <v>1.1357991963388772</v>
+        <v>1.0095992856345575</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
@@ -4038,7 +4040,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="3"/>
-        <v>1.1314739368233062</v>
+        <v>1.0057546105096056</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
@@ -4047,7 +4049,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="3"/>
-        <v>1.1271486773077353</v>
+        <v>1.0019099353846537</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
@@ -4056,7 +4058,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="3"/>
-        <v>1.1228234177921643</v>
+        <v>0.99806526025970177</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4067,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="3"/>
-        <v>1.1184981582765934</v>
+        <v>0.99422058513474987</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
@@ -4074,7 +4076,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="3"/>
-        <v>1.1141728987610224</v>
+        <v>0.99037591000979797</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.25">
@@ -4083,7 +4085,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="3"/>
-        <v>1.1098476392454515</v>
+        <v>0.98653123488484595</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.25">
@@ -4092,7 +4094,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="3"/>
-        <v>1.1055223797298805</v>
+        <v>0.98268655975989394</v>
       </c>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.25">
@@ -4101,7 +4103,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="3"/>
-        <v>1.1011971202143096</v>
+        <v>0.97884188463494204</v>
       </c>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.25">
@@ -4110,7 +4112,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="3"/>
-        <v>1.0968718606987387</v>
+        <v>0.97499720950999014</v>
       </c>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.25">
@@ -4119,7 +4121,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="3"/>
-        <v>1.0925466011831677</v>
+        <v>0.97115253438503824</v>
       </c>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.25">
@@ -4128,7 +4130,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="3"/>
-        <v>1.088221341667597</v>
+        <v>0.96730785926008622</v>
       </c>
     </row>
     <row r="111" spans="6:7" x14ac:dyDescent="0.25">
@@ -4137,7 +4139,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="3"/>
-        <v>1.083896082152026</v>
+        <v>0.96346318413513432</v>
       </c>
     </row>
     <row r="112" spans="6:7" x14ac:dyDescent="0.25">
@@ -4146,7 +4148,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="3"/>
-        <v>1.0795708226364551</v>
+        <v>0.95961850901018231</v>
       </c>
     </row>
     <row r="113" spans="6:7" x14ac:dyDescent="0.25">
@@ -4155,7 +4157,7 @@
       </c>
       <c r="G113">
         <f t="shared" si="3"/>
-        <v>1.0752455631208842</v>
+        <v>0.95577383388523041</v>
       </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.25">
@@ -4164,7 +4166,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="3"/>
-        <v>1.0709203036053132</v>
+        <v>0.9519291587602785</v>
       </c>
     </row>
     <row r="115" spans="6:7" x14ac:dyDescent="0.25">
@@ -4173,7 +4175,7 @@
       </c>
       <c r="G115">
         <f t="shared" si="3"/>
-        <v>1.0665950440897423</v>
+        <v>0.9480844836353266</v>
       </c>
     </row>
     <row r="116" spans="6:7" x14ac:dyDescent="0.25">
@@ -4182,7 +4184,7 @@
       </c>
       <c r="G116">
         <f t="shared" si="3"/>
-        <v>1.0622697845741713</v>
+        <v>0.94423980851037459</v>
       </c>
     </row>
     <row r="117" spans="6:7" x14ac:dyDescent="0.25">
@@ -4191,7 +4193,7 @@
       </c>
       <c r="G117">
         <f t="shared" si="3"/>
-        <v>1.0579445250586004</v>
+        <v>0.94039513338542258</v>
       </c>
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
@@ -4200,7 +4202,7 @@
       </c>
       <c r="G118">
         <f t="shared" si="3"/>
-        <v>1.0536192655430294</v>
+        <v>0.93655045826047068</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
@@ -4209,7 +4211,7 @@
       </c>
       <c r="G119">
         <f t="shared" si="3"/>
-        <v>1.0492940060274585</v>
+        <v>0.93270578313551877</v>
       </c>
     </row>
     <row r="120" spans="6:7" x14ac:dyDescent="0.25">
@@ -4218,7 +4220,7 @@
       </c>
       <c r="G120">
         <f t="shared" si="3"/>
-        <v>1.0449687465118875</v>
+        <v>0.92886110801056687</v>
       </c>
     </row>
     <row r="121" spans="6:7" x14ac:dyDescent="0.25">
@@ -4227,7 +4229,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="3"/>
-        <v>1.0406434869963166</v>
+        <v>0.92501643288561497</v>
       </c>
     </row>
     <row r="122" spans="6:7" x14ac:dyDescent="0.25">
@@ -4236,7 +4238,7 @@
       </c>
       <c r="G122">
         <f t="shared" si="3"/>
-        <v>1.0363182274807456</v>
+        <v>0.92117175776066296</v>
       </c>
     </row>
     <row r="123" spans="6:7" x14ac:dyDescent="0.25">
@@ -4245,7 +4247,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="3"/>
-        <v>1.0319929679651747</v>
+        <v>0.91732708263571094</v>
       </c>
     </row>
     <row r="124" spans="6:7" x14ac:dyDescent="0.25">
@@ -4254,7 +4256,7 @@
       </c>
       <c r="G124">
         <f t="shared" si="3"/>
-        <v>1.0276677084496038</v>
+        <v>0.91348240751075904</v>
       </c>
     </row>
     <row r="125" spans="6:7" x14ac:dyDescent="0.25">
@@ -4263,7 +4265,7 @@
       </c>
       <c r="G125">
         <f t="shared" si="3"/>
-        <v>1.0233424489340328</v>
+        <v>0.90963773238580714</v>
       </c>
     </row>
     <row r="126" spans="6:7" x14ac:dyDescent="0.25">
@@ -4272,7 +4274,7 @@
       </c>
       <c r="G126">
         <f t="shared" si="3"/>
-        <v>1.0190171894184621</v>
+        <v>0.90579305726085524</v>
       </c>
     </row>
     <row r="127" spans="6:7" x14ac:dyDescent="0.25">
@@ -4281,7 +4283,7 @@
       </c>
       <c r="G127">
         <f t="shared" si="3"/>
-        <v>1.0146919299028911</v>
+        <v>0.90194838213590323</v>
       </c>
     </row>
     <row r="128" spans="6:7" x14ac:dyDescent="0.25">
@@ -4290,7 +4292,7 @@
       </c>
       <c r="G128">
         <f t="shared" si="3"/>
-        <v>1.0103666703873202</v>
+        <v>0.89810370701095132</v>
       </c>
     </row>
     <row r="129" spans="6:7" x14ac:dyDescent="0.25">
@@ -4299,7 +4301,7 @@
       </c>
       <c r="G129">
         <f t="shared" si="3"/>
-        <v>1.0060414108717493</v>
+        <v>0.89425903188599931</v>
       </c>
     </row>
     <row r="130" spans="6:7" x14ac:dyDescent="0.25">
@@ -4308,7 +4310,7 @@
       </c>
       <c r="G130">
         <f t="shared" si="3"/>
-        <v>1.0017161513561783</v>
+        <v>0.89041435676104741</v>
       </c>
     </row>
     <row r="131" spans="6:7" x14ac:dyDescent="0.25">
@@ -4317,7 +4319,7 @@
       </c>
       <c r="G131">
         <f t="shared" si="3"/>
-        <v>0.99739089184060725</v>
+        <v>0.88656968163609551</v>
       </c>
     </row>
     <row r="132" spans="6:7" x14ac:dyDescent="0.25">
@@ -4326,7 +4328,7 @@
       </c>
       <c r="G132">
         <f t="shared" si="3"/>
-        <v>0.99306563232503631</v>
+        <v>0.88272500651114361</v>
       </c>
     </row>
     <row r="133" spans="6:7" x14ac:dyDescent="0.25">
@@ -4335,7 +4337,7 @@
       </c>
       <c r="G133">
         <f t="shared" si="3"/>
-        <v>0.98874037280946536</v>
+        <v>0.87888033138619159</v>
       </c>
     </row>
     <row r="134" spans="6:7" x14ac:dyDescent="0.25">
@@ -4344,7 +4346,7 @@
       </c>
       <c r="G134">
         <f t="shared" si="3"/>
-        <v>0.98441511329389453</v>
+        <v>0.87503565626123958</v>
       </c>
     </row>
     <row r="135" spans="6:7" x14ac:dyDescent="0.25">
@@ -4353,7 +4355,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="3"/>
-        <v>0.98008985377832358</v>
+        <v>0.87119098113628768</v>
       </c>
     </row>
     <row r="136" spans="6:7" x14ac:dyDescent="0.25">
@@ -4362,7 +4364,7 @@
       </c>
       <c r="G136">
         <f t="shared" si="3"/>
-        <v>0.97576459426275264</v>
+        <v>0.86734630601133578</v>
       </c>
     </row>
     <row r="137" spans="6:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4373,7 @@
       </c>
       <c r="G137">
         <f t="shared" si="3"/>
-        <v>0.97143933474718169</v>
+        <v>0.86350163088638388</v>
       </c>
     </row>
     <row r="138" spans="6:7" x14ac:dyDescent="0.25">
@@ -4380,7 +4382,7 @@
       </c>
       <c r="G138">
         <f t="shared" si="3"/>
-        <v>0.96711407523161075</v>
+        <v>0.85965695576143186</v>
       </c>
     </row>
     <row r="139" spans="6:7" x14ac:dyDescent="0.25">
@@ -4389,7 +4391,7 @@
       </c>
       <c r="G139">
         <f t="shared" si="3"/>
-        <v>0.9627888157160398</v>
+        <v>0.85581228063647996</v>
       </c>
     </row>
     <row r="140" spans="6:7" x14ac:dyDescent="0.25">
@@ -4398,7 +4400,7 @@
       </c>
       <c r="G140">
         <f t="shared" si="3"/>
-        <v>0.95846355620046886</v>
+        <v>0.85196760551152795</v>
       </c>
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
@@ -4407,7 +4409,7 @@
       </c>
       <c r="G141">
         <f t="shared" si="3"/>
-        <v>0.95413829668489791</v>
+        <v>0.84812293038657605</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
@@ -4416,7 +4418,7 @@
       </c>
       <c r="G142">
         <f t="shared" ref="G142:G205" si="4">$I$10-((MIN(F142,$G$8)-$G$7)/$I$15+IF(F142&gt;=$G$8,1,0)*(MIN(F142,$G$9)-$G$8)/$I$14+IF(F142&gt;=$G$9,1,0)*(MIN(F142,$G$10)-$G$9)/$I$13)</f>
-        <v>0.94981303716932697</v>
+        <v>0.84427825526162414</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
@@ -4425,7 +4427,7 @@
       </c>
       <c r="G143">
         <f t="shared" si="4"/>
-        <v>0.94548777765375602</v>
+        <v>0.84043358013667213</v>
       </c>
     </row>
     <row r="144" spans="6:7" x14ac:dyDescent="0.25">
@@ -4434,7 +4436,7 @@
       </c>
       <c r="G144">
         <f t="shared" si="4"/>
-        <v>0.94116251813818519</v>
+        <v>0.83658890501172023</v>
       </c>
     </row>
     <row r="145" spans="6:7" x14ac:dyDescent="0.25">
@@ -4443,7 +4445,7 @@
       </c>
       <c r="G145">
         <f t="shared" si="4"/>
-        <v>0.93683725862261424</v>
+        <v>0.83274422988676833</v>
       </c>
     </row>
     <row r="146" spans="6:7" x14ac:dyDescent="0.25">
@@ -4452,7 +4454,7 @@
       </c>
       <c r="G146">
         <f t="shared" si="4"/>
-        <v>0.9325119991070433</v>
+        <v>0.82889955476181632</v>
       </c>
     </row>
     <row r="147" spans="6:7" x14ac:dyDescent="0.25">
@@ -4461,7 +4463,7 @@
       </c>
       <c r="G147">
         <f t="shared" si="4"/>
-        <v>0.92818673959147235</v>
+        <v>0.82505487963686441</v>
       </c>
     </row>
     <row r="148" spans="6:7" x14ac:dyDescent="0.25">
@@ -4470,7 +4472,7 @@
       </c>
       <c r="G148">
         <f t="shared" si="4"/>
-        <v>0.92386148007590141</v>
+        <v>0.82121020451191251</v>
       </c>
     </row>
     <row r="149" spans="6:7" x14ac:dyDescent="0.25">
@@ -4479,7 +4481,7 @@
       </c>
       <c r="G149">
         <f t="shared" si="4"/>
-        <v>0.91953622056033046</v>
+        <v>0.8173655293869605</v>
       </c>
     </row>
     <row r="150" spans="6:7" x14ac:dyDescent="0.25">
@@ -4488,7 +4490,7 @@
       </c>
       <c r="G150">
         <f t="shared" si="4"/>
-        <v>0.91521096104475952</v>
+        <v>0.8135208542620086</v>
       </c>
     </row>
     <row r="151" spans="6:7" x14ac:dyDescent="0.25">
@@ -4497,7 +4499,7 @@
       </c>
       <c r="G151">
         <f t="shared" si="4"/>
-        <v>0.91088570152918857</v>
+        <v>0.8096761791370567</v>
       </c>
     </row>
     <row r="152" spans="6:7" x14ac:dyDescent="0.25">
@@ -4506,7 +4508,7 @@
       </c>
       <c r="G152">
         <f t="shared" si="4"/>
-        <v>0.90656044201361763</v>
+        <v>0.80583150401210468</v>
       </c>
     </row>
     <row r="153" spans="6:7" x14ac:dyDescent="0.25">
@@ -4515,7 +4517,7 @@
       </c>
       <c r="G153">
         <f t="shared" si="4"/>
-        <v>0.90223518249804668</v>
+        <v>0.80198682888715278</v>
       </c>
     </row>
     <row r="154" spans="6:7" x14ac:dyDescent="0.25">
@@ -4524,7 +4526,7 @@
       </c>
       <c r="G154">
         <f t="shared" si="4"/>
-        <v>0.89790992298247574</v>
+        <v>0.79814215376220088</v>
       </c>
     </row>
     <row r="155" spans="6:7" x14ac:dyDescent="0.25">
@@ -4533,7 +4535,7 @@
       </c>
       <c r="G155">
         <f t="shared" si="4"/>
-        <v>0.8935846634669049</v>
+        <v>0.79429747863724887</v>
       </c>
     </row>
     <row r="156" spans="6:7" x14ac:dyDescent="0.25">
@@ -4542,7 +4544,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="4"/>
-        <v>0.88925940395133396</v>
+        <v>0.79045280351229696</v>
       </c>
     </row>
     <row r="157" spans="6:7" x14ac:dyDescent="0.25">
@@ -4551,7 +4553,7 @@
       </c>
       <c r="G157">
         <f t="shared" si="4"/>
-        <v>0.88493414443576301</v>
+        <v>0.78660812838734495</v>
       </c>
     </row>
     <row r="158" spans="6:7" x14ac:dyDescent="0.25">
@@ -4560,7 +4562,7 @@
       </c>
       <c r="G158">
         <f t="shared" si="4"/>
-        <v>0.88060888492019207</v>
+        <v>0.78276345326239305</v>
       </c>
     </row>
     <row r="159" spans="6:7" x14ac:dyDescent="0.25">
@@ -4569,7 +4571,7 @@
       </c>
       <c r="G159">
         <f t="shared" si="4"/>
-        <v>0.87628362540462112</v>
+        <v>0.77891877813744115</v>
       </c>
     </row>
     <row r="160" spans="6:7" x14ac:dyDescent="0.25">
@@ -4578,7 +4580,7 @@
       </c>
       <c r="G160">
         <f t="shared" si="4"/>
-        <v>0.87195836588905018</v>
+        <v>0.77507410301248914</v>
       </c>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
@@ -4587,7 +4589,7 @@
       </c>
       <c r="G161">
         <f t="shared" si="4"/>
-        <v>0.86763310637347923</v>
+        <v>0.77122942788753723</v>
       </c>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
@@ -4596,7 +4598,7 @@
       </c>
       <c r="G162">
         <f t="shared" si="4"/>
-        <v>0.86330784685790829</v>
+        <v>0.76738475276258533</v>
       </c>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
@@ -4605,7 +4607,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="4"/>
-        <v>0.85898258734233734</v>
+        <v>0.76354007763763332</v>
       </c>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
@@ -4614,7 +4616,7 @@
       </c>
       <c r="G164">
         <f t="shared" si="4"/>
-        <v>0.8546573278267664</v>
+        <v>0.75969540251268142</v>
       </c>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
@@ -4623,7 +4625,7 @@
       </c>
       <c r="G165">
         <f t="shared" si="4"/>
-        <v>0.85033206831119557</v>
+        <v>0.75585072738772952</v>
       </c>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
@@ -4632,7 +4634,7 @@
       </c>
       <c r="G166">
         <f t="shared" si="4"/>
-        <v>0.84600680879562462</v>
+        <v>0.7520060522627775</v>
       </c>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
@@ -4641,7 +4643,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="4"/>
-        <v>0.84168154928005368</v>
+        <v>0.7481613771378256</v>
       </c>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
@@ -4650,7 +4652,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="4"/>
-        <v>0.83735628976448273</v>
+        <v>0.7443167020128737</v>
       </c>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
@@ -4659,7 +4661,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="4"/>
-        <v>0.83303103024891179</v>
+        <v>0.74047202688792169</v>
       </c>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
@@ -4668,7 +4670,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="4"/>
-        <v>0.82870577073334084</v>
+        <v>0.73662735176296978</v>
       </c>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
@@ -4677,7 +4679,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="4"/>
-        <v>0.8243805112177699</v>
+        <v>0.73278267663801788</v>
       </c>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
@@ -4686,7 +4688,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="4"/>
-        <v>0.82005525170219895</v>
+        <v>0.72893800151306587</v>
       </c>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
@@ -4695,7 +4697,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="4"/>
-        <v>0.81572999218662801</v>
+        <v>0.72509332638811397</v>
       </c>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
@@ -4704,7 +4706,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="4"/>
-        <v>0.81140473267105706</v>
+        <v>0.72124865126316196</v>
       </c>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
@@ -4713,7 +4715,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="4"/>
-        <v>0.80707947315548612</v>
+        <v>0.71740397613821005</v>
       </c>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
@@ -4722,7 +4724,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="4"/>
-        <v>0.80275421363991528</v>
+        <v>0.71355930101325815</v>
       </c>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.25">
@@ -4731,7 +4733,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="4"/>
-        <v>0.79842895412434434</v>
+        <v>0.70971462588830614</v>
       </c>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.25">
@@ -4740,7 +4742,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="4"/>
-        <v>0.79410369460877339</v>
+        <v>0.70586995076335424</v>
       </c>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.25">
@@ -4749,7 +4751,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="4"/>
-        <v>0.78977843509320245</v>
+        <v>0.70202527563840234</v>
       </c>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.25">
@@ -4758,7 +4760,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="4"/>
-        <v>0.7854531755776315</v>
+        <v>0.69818060051345032</v>
       </c>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.25">
@@ -4767,7 +4769,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="4"/>
-        <v>0.78112791606206056</v>
+        <v>0.69433592538849842</v>
       </c>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.25">
@@ -4776,7 +4778,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="4"/>
-        <v>0.77680265654648961</v>
+        <v>0.69049125026354652</v>
       </c>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.25">
@@ -4785,7 +4787,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="4"/>
-        <v>0.77247739703091867</v>
+        <v>0.68664657513859451</v>
       </c>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.25">
@@ -4794,7 +4796,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="4"/>
-        <v>0.76815213751534772</v>
+        <v>0.6828019000136426</v>
       </c>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.25">
@@ -4803,7 +4805,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="4"/>
-        <v>0.76382687799977678</v>
+        <v>0.6789572248886907</v>
       </c>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.25">
@@ -4812,7 +4814,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="4"/>
-        <v>0.75950161848420594</v>
+        <v>0.67511254976373869</v>
       </c>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.25">
@@ -4821,7 +4823,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="4"/>
-        <v>0.755176358968635</v>
+        <v>0.67126787463878679</v>
       </c>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.25">
@@ -4830,7 +4832,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="4"/>
-        <v>0.75085109945306405</v>
+        <v>0.66742319951383478</v>
       </c>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.25">
@@ -4839,7 +4841,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="4"/>
-        <v>0.74652583993749311</v>
+        <v>0.66357852438888287</v>
       </c>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.25">
@@ -4848,7 +4850,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="4"/>
-        <v>0.74220058042192216</v>
+        <v>0.65973384926393097</v>
       </c>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.25">
@@ -4857,7 +4859,7 @@
       </c>
       <c r="G191">
         <f t="shared" si="4"/>
-        <v>0.73787532090635122</v>
+        <v>0.65588917413897896</v>
       </c>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.25">
@@ -4866,7 +4868,7 @@
       </c>
       <c r="G192">
         <f t="shared" si="4"/>
-        <v>0.73355006139078027</v>
+        <v>0.65204449901402706</v>
       </c>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.25">
@@ -4875,7 +4877,7 @@
       </c>
       <c r="G193">
         <f t="shared" si="4"/>
-        <v>0.72922480187520933</v>
+        <v>0.64819982388907516</v>
       </c>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.25">
@@ -4884,7 +4886,7 @@
       </c>
       <c r="G194">
         <f t="shared" si="4"/>
-        <v>0.72489954235963838</v>
+        <v>0.64435514876412314</v>
       </c>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.25">
@@ -4893,7 +4895,7 @@
       </c>
       <c r="G195">
         <f t="shared" si="4"/>
-        <v>0.72057428284406744</v>
+        <v>0.64051047363917124</v>
       </c>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.25">
@@ -4902,7 +4904,7 @@
       </c>
       <c r="G196">
         <f t="shared" si="4"/>
-        <v>0.71624902332849649</v>
+        <v>0.63666579851421934</v>
       </c>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.25">
@@ -4911,7 +4913,7 @@
       </c>
       <c r="G197">
         <f t="shared" si="4"/>
-        <v>0.71192376381292566</v>
+        <v>0.63282112338926733</v>
       </c>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.25">
@@ -4920,7 +4922,7 @@
       </c>
       <c r="G198">
         <f t="shared" si="4"/>
-        <v>0.70759850429735471</v>
+        <v>0.62897644826431542</v>
       </c>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.25">
@@ -4929,7 +4931,7 @@
       </c>
       <c r="G199">
         <f t="shared" si="4"/>
-        <v>0.70327324478178377</v>
+        <v>0.62513177313936352</v>
       </c>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.25">
@@ -4938,7 +4940,7 @@
       </c>
       <c r="G200">
         <f t="shared" si="4"/>
-        <v>0.69894798526621282</v>
+        <v>0.62128709801441151</v>
       </c>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.25">
@@ -4947,7 +4949,7 @@
       </c>
       <c r="G201">
         <f t="shared" si="4"/>
-        <v>0.69462272575064188</v>
+        <v>0.61744242288945961</v>
       </c>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.25">
@@ -4956,7 +4958,7 @@
       </c>
       <c r="G202">
         <f t="shared" si="4"/>
-        <v>0.69029746623507093</v>
+        <v>0.6135977477645076</v>
       </c>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.25">
@@ -4965,7 +4967,7 @@
       </c>
       <c r="G203">
         <f t="shared" si="4"/>
-        <v>0.68597220671949999</v>
+        <v>0.60975307263955569</v>
       </c>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.25">
@@ -4974,7 +4976,7 @@
       </c>
       <c r="G204">
         <f t="shared" si="4"/>
-        <v>0.68164694720392904</v>
+        <v>0.60590839751460379</v>
       </c>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.25">
@@ -4983,7 +4985,7 @@
       </c>
       <c r="G205">
         <f t="shared" si="4"/>
-        <v>0.6773216876883581</v>
+        <v>0.60206372238965178</v>
       </c>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.25">
@@ -4992,7 +4994,7 @@
       </c>
       <c r="G206">
         <f t="shared" ref="G206:G262" si="5">$I$10-((MIN(F206,$G$8)-$G$7)/$I$15+IF(F206&gt;=$G$8,1,0)*(MIN(F206,$G$9)-$G$8)/$I$14+IF(F206&gt;=$G$9,1,0)*(MIN(F206,$G$10)-$G$9)/$I$13)</f>
-        <v>0.67299642817278715</v>
+        <v>0.59821904726469988</v>
       </c>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.25">
@@ -5001,7 +5003,7 @@
       </c>
       <c r="G207">
         <f t="shared" si="5"/>
-        <v>0.66867116865721632</v>
+        <v>0.59437437213974798</v>
       </c>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.25">
@@ -5010,7 +5012,7 @@
       </c>
       <c r="G208">
         <f t="shared" si="5"/>
-        <v>0.66434590914164537</v>
+        <v>0.59052969701479596</v>
       </c>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.25">
@@ -5019,7 +5021,7 @@
       </c>
       <c r="G209">
         <f t="shared" si="5"/>
-        <v>0.66002064962607443</v>
+        <v>0.58668502188984406</v>
       </c>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.25">
@@ -5028,7 +5030,7 @@
       </c>
       <c r="G210">
         <f t="shared" si="5"/>
-        <v>0.65569539011050348</v>
+        <v>0.58284034676489216</v>
       </c>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.25">
@@ -5037,7 +5039,7 @@
       </c>
       <c r="G211">
         <f t="shared" si="5"/>
-        <v>0.65137013059493254</v>
+        <v>0.57899567163994015</v>
       </c>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.25">
@@ -5046,7 +5048,7 @@
       </c>
       <c r="G212">
         <f t="shared" si="5"/>
-        <v>0.64704487107936159</v>
+        <v>0.57515099651498824</v>
       </c>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.25">
@@ -5055,7 +5057,7 @@
       </c>
       <c r="G213">
         <f t="shared" si="5"/>
-        <v>0.64271961156379065</v>
+        <v>0.57130632139003634</v>
       </c>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.25">
@@ -5064,7 +5066,7 @@
       </c>
       <c r="G214">
         <f t="shared" si="5"/>
-        <v>0.6383943520482197</v>
+        <v>0.56746164626508433</v>
       </c>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.25">
@@ -5073,7 +5075,7 @@
       </c>
       <c r="G215">
         <f t="shared" si="5"/>
-        <v>0.63406909253264876</v>
+        <v>0.56361697114013243</v>
       </c>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.25">
@@ -5082,7 +5084,7 @@
       </c>
       <c r="G216">
         <f t="shared" si="5"/>
-        <v>0.62974383301707781</v>
+        <v>0.55977229601518053</v>
       </c>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.25">
@@ -5091,7 +5093,7 @@
       </c>
       <c r="G217">
         <f t="shared" si="5"/>
-        <v>0.62541857350150687</v>
+        <v>0.55592762089022851</v>
       </c>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.25">
@@ -5100,7 +5102,7 @@
       </c>
       <c r="G218">
         <f t="shared" si="5"/>
-        <v>0.62109331398593604</v>
+        <v>0.55208294576527661</v>
       </c>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.25">
@@ -5109,7 +5111,7 @@
       </c>
       <c r="G219">
         <f t="shared" si="5"/>
-        <v>0.61676805447036509</v>
+        <v>0.5482382706403246</v>
       </c>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.25">
@@ -5118,7 +5120,7 @@
       </c>
       <c r="G220">
         <f t="shared" si="5"/>
-        <v>0.61244279495479415</v>
+        <v>0.5443935955153727</v>
       </c>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.25">
@@ -5127,7 +5129,7 @@
       </c>
       <c r="G221">
         <f t="shared" si="5"/>
-        <v>0.6081175354392232</v>
+        <v>0.5405489203904208</v>
       </c>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.25">
@@ -5136,7 +5138,7 @@
       </c>
       <c r="G222">
         <f t="shared" si="5"/>
-        <v>0.60379227592365226</v>
+        <v>0.53670424526546878</v>
       </c>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.25">
@@ -5145,7 +5147,7 @@
       </c>
       <c r="G223">
         <f t="shared" si="5"/>
-        <v>0.59946701640808131</v>
+        <v>0.53285957014051688</v>
       </c>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.25">
@@ -5154,7 +5156,7 @@
       </c>
       <c r="G224">
         <f t="shared" si="5"/>
-        <v>0.59514175689251037</v>
+        <v>0.52901489501556498</v>
       </c>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.25">
@@ -5163,7 +5165,7 @@
       </c>
       <c r="G225">
         <f t="shared" si="5"/>
-        <v>0.58823529411764708</v>
+        <v>0.52287581699346419</v>
       </c>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.25">
@@ -5172,7 +5174,7 @@
       </c>
       <c r="G226">
         <f t="shared" si="5"/>
-        <v>0.57874762808349145</v>
+        <v>0.51444233607421475</v>
       </c>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.25">
@@ -5181,7 +5183,7 @@
       </c>
       <c r="G227">
         <f t="shared" si="5"/>
-        <v>0.56925996204933593</v>
+        <v>0.50600885515496541</v>
       </c>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.25">
@@ -5190,7 +5192,7 @@
       </c>
       <c r="G228">
         <f t="shared" si="5"/>
-        <v>0.5597722960151803</v>
+        <v>0.49757537423571596</v>
       </c>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.25">
@@ -5199,7 +5201,7 @@
       </c>
       <c r="G229">
         <f t="shared" si="5"/>
-        <v>0.55028462998102468</v>
+        <v>0.48914189331646651</v>
       </c>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.25">
@@ -5208,7 +5210,7 @@
       </c>
       <c r="G230">
         <f t="shared" si="5"/>
-        <v>0.54079696394686905</v>
+        <v>0.48070841239721707</v>
       </c>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.25">
@@ -5217,7 +5219,7 @@
       </c>
       <c r="G231">
         <f t="shared" si="5"/>
-        <v>0.53130929791271342</v>
+        <v>0.47227493147796773</v>
       </c>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.25">
@@ -5226,7 +5228,7 @@
       </c>
       <c r="G232">
         <f t="shared" si="5"/>
-        <v>0.5218216318785579</v>
+        <v>0.46384145055871828</v>
       </c>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.25">
@@ -5235,7 +5237,7 @@
       </c>
       <c r="G233">
         <f t="shared" si="5"/>
-        <v>0.51233396584440227</v>
+        <v>0.45540796963946883</v>
       </c>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.25">
@@ -5244,7 +5246,7 @@
       </c>
       <c r="G234">
         <f t="shared" si="5"/>
-        <v>0.50284629981024676</v>
+        <v>0.44697448872021939</v>
       </c>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.25">
@@ -5253,7 +5255,7 @@
       </c>
       <c r="G235">
         <f t="shared" si="5"/>
-        <v>0.49335863377609113</v>
+        <v>0.43854100780096994</v>
       </c>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.25">
@@ -5262,7 +5264,7 @@
       </c>
       <c r="G236">
         <f t="shared" si="5"/>
-        <v>0.4838709677419355</v>
+        <v>0.4301075268817206</v>
       </c>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.25">
@@ -5271,7 +5273,7 @@
       </c>
       <c r="G237">
         <f t="shared" si="5"/>
-        <v>0.47438330170777987</v>
+        <v>0.42167404596247116</v>
       </c>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.25">
@@ -5280,7 +5282,7 @@
       </c>
       <c r="G238">
         <f t="shared" si="5"/>
-        <v>0.46489563567362424</v>
+        <v>0.41324056504322171</v>
       </c>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.25">
@@ -5289,7 +5291,7 @@
       </c>
       <c r="G239">
         <f t="shared" si="5"/>
-        <v>0.45540796963946861</v>
+        <v>0.40480708412397237</v>
       </c>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.25">
@@ -5298,7 +5300,7 @@
       </c>
       <c r="G240">
         <f t="shared" si="5"/>
-        <v>0.44592030360531298</v>
+        <v>0.39637360320472292</v>
       </c>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.25">
@@ -5307,7 +5309,7 @@
       </c>
       <c r="G241">
         <f t="shared" si="5"/>
-        <v>0.43643263757115758</v>
+        <v>0.38794012228547348</v>
       </c>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.25">
@@ -5316,7 +5318,7 @@
       </c>
       <c r="G242">
         <f t="shared" si="5"/>
-        <v>0.42694497153700173</v>
+        <v>0.37950664136622403</v>
       </c>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.25">
@@ -5325,7 +5327,7 @@
       </c>
       <c r="G243">
         <f t="shared" si="5"/>
-        <v>0.41745730550284632</v>
+        <v>0.37107316044697458</v>
       </c>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.25">
@@ -5334,7 +5336,7 @@
       </c>
       <c r="G244">
         <f t="shared" si="5"/>
-        <v>0.40796963946869069</v>
+        <v>0.36263967952772524</v>
       </c>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.25">
@@ -5343,7 +5345,7 @@
       </c>
       <c r="G245">
         <f t="shared" si="5"/>
-        <v>0.39848197343453506</v>
+        <v>0.3542061986084758</v>
       </c>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.25">
@@ -5352,7 +5354,7 @@
       </c>
       <c r="G246">
         <f t="shared" si="5"/>
-        <v>0.38899430740037944</v>
+        <v>0.34577271768922635</v>
       </c>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.25">
@@ -5361,7 +5363,7 @@
       </c>
       <c r="G247">
         <f t="shared" si="5"/>
-        <v>0.37950664136622381</v>
+        <v>0.33733923676997701</v>
       </c>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.25">
@@ -5370,7 +5372,7 @@
       </c>
       <c r="G248">
         <f t="shared" si="5"/>
-        <v>0.37001897533206818</v>
+        <v>0.32890575585072757</v>
       </c>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.25">
@@ -5379,7 +5381,7 @@
       </c>
       <c r="G249">
         <f t="shared" si="5"/>
-        <v>0.36053130929791255</v>
+        <v>0.32047227493147812</v>
       </c>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.25">
@@ -5388,7 +5390,7 @@
       </c>
       <c r="G250">
         <f t="shared" si="5"/>
-        <v>0.34155597722960152</v>
+        <v>0.30360531309297922</v>
       </c>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.25">
@@ -5397,7 +5399,7 @@
       </c>
       <c r="G251">
         <f t="shared" si="5"/>
-        <v>0.31309297912713463</v>
+        <v>0.27830487033523088</v>
       </c>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.25">
@@ -5406,7 +5408,7 @@
       </c>
       <c r="G252">
         <f t="shared" si="5"/>
-        <v>0.28462998102466797</v>
+        <v>0.25300442757748276</v>
       </c>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.25">
@@ -5415,7 +5417,7 @@
       </c>
       <c r="G253">
         <f t="shared" si="5"/>
-        <v>0.25616698292220108</v>
+        <v>0.22770398481973442</v>
       </c>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.25">
@@ -5424,7 +5426,7 @@
       </c>
       <c r="G254">
         <f t="shared" si="5"/>
-        <v>0.2277039848197342</v>
+        <v>0.20240354206198607</v>
       </c>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.25">
@@ -5433,7 +5435,7 @@
       </c>
       <c r="G255">
         <f t="shared" si="5"/>
-        <v>0.19924098671726753</v>
+        <v>0.17710309930423795</v>
       </c>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.25">
@@ -5442,7 +5444,7 @@
       </c>
       <c r="G256">
         <f t="shared" si="5"/>
-        <v>0.17077798861480065</v>
+        <v>0.15180265654648961</v>
       </c>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.25">
@@ -5451,7 +5453,7 @@
       </c>
       <c r="G257">
         <f t="shared" si="5"/>
-        <v>0.14231499051233398</v>
+        <v>0.12650221378874127</v>
       </c>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.25">
@@ -5460,7 +5462,7 @@
       </c>
       <c r="G258">
         <f t="shared" si="5"/>
-        <v>0.1138519924098671</v>
+        <v>0.10120177103099315</v>
       </c>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.25">
@@ -5469,7 +5471,7 @@
       </c>
       <c r="G259">
         <f t="shared" si="5"/>
-        <v>8.5388994307400434E-2</v>
+        <v>7.5901328273244806E-2</v>
       </c>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.25">
@@ -5478,7 +5480,7 @@
       </c>
       <c r="G260">
         <f t="shared" si="5"/>
-        <v>5.6925996204933549E-2</v>
+        <v>5.0600885515496685E-2</v>
       </c>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.25">
@@ -5487,7 +5489,7 @@
       </c>
       <c r="G261">
         <f t="shared" si="5"/>
-        <v>2.8462998102466663E-2</v>
+        <v>2.5300442757748343E-2</v>
       </c>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.25">
